--- a/src/test/resources/TestData/Hydroflask/HydroTestData.xlsx
+++ b/src/test/resources/TestData/Hydroflask/HydroTestData.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23127"/>
-  <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A7CE2C4-841B-49C5-9D1E-8061BB1B2937}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="12420" windowHeight="5925"/>
   </bookViews>
   <sheets>
     <sheet name="DataSet" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -20,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="37">
   <si>
     <t>UserName</t>
   </si>
@@ -104,12 +103,39 @@
   </si>
   <si>
     <t>4444444444444448</t>
+  </si>
+  <si>
+    <t>WarrantyDetails</t>
+  </si>
+  <si>
+    <t>United States (US)</t>
+  </si>
+  <si>
+    <t>Country</t>
+  </si>
+  <si>
+    <t>State</t>
+  </si>
+  <si>
+    <t>BBM001 (MEDIUM FLEX BOOT BLACK)</t>
+  </si>
+  <si>
+    <t>Products</t>
+  </si>
+  <si>
+    <t>ProductQuantity</t>
+  </si>
+  <si>
+    <t>scratch the outside of bottle</t>
+  </si>
+  <si>
+    <t>ProblemDescription</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0;[Red]0"/>
   </numFmts>
@@ -446,24 +472,32 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:P4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:V5"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="C5" sqref="A5:XFD35"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="I3" sqref="I3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18.1796875" customWidth="1"/>
-    <col min="2" max="2" width="24.7265625" customWidth="1"/>
-    <col min="3" max="3" width="19.7265625" customWidth="1"/>
-    <col min="6" max="6" width="27.26953125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="13.453125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="27.26953125" customWidth="1"/>
+    <col min="1" max="1" width="18.140625" customWidth="1"/>
+    <col min="2" max="2" width="24.7109375" customWidth="1"/>
+    <col min="3" max="3" width="19.7109375" customWidth="1"/>
+    <col min="4" max="4" width="10.85546875" customWidth="1"/>
+    <col min="5" max="5" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="29.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="34.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="17.140625" customWidth="1"/>
+    <col min="9" max="9" width="18.28515625" customWidth="1"/>
+    <col min="12" max="12" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="17.28515625" customWidth="1"/>
+    <col min="14" max="14" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="27.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>3</v>
       </c>
@@ -483,37 +517,53 @@
         <v>7</v>
       </c>
       <c r="G1" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="J1" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="K1" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="L1" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="N1" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="O1" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="P1" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="Q1" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="M1" s="2" t="s">
+      <c r="R1" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="N1" s="2" t="s">
+      <c r="S1" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="O1" s="2" t="s">
+      <c r="T1" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="P1" s="2" t="s">
+      <c r="U1" s="2"/>
+      <c r="V1" s="2" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -532,8 +582,11 @@
       <c r="F2" s="1" t="s">
         <v>2</v>
       </c>
+      <c r="G2" s="1"/>
+      <c r="H2" s="1"/>
+      <c r="I2" s="1"/>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>11</v>
       </c>
@@ -547,51 +600,103 @@
       <c r="F3" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="G3" t="s">
+      <c r="G3" s="1"/>
+      <c r="H3" s="1"/>
+      <c r="I3" s="1"/>
+      <c r="J3" t="s">
         <v>21</v>
       </c>
-      <c r="H3" t="s">
+      <c r="K3" t="s">
         <v>21</v>
       </c>
-      <c r="I3" t="s">
+      <c r="N3" t="s">
         <v>22</v>
       </c>
-      <c r="J3">
+      <c r="O3">
         <v>12345</v>
       </c>
-      <c r="K3" s="4">
+      <c r="P3" s="4">
         <v>9898989899</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>25</v>
       </c>
       <c r="C4" s="1"/>
-      <c r="L4" t="s">
+      <c r="Q4" t="s">
         <v>23</v>
       </c>
-      <c r="M4" s="5" t="s">
+      <c r="R4" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="N4" s="3">
+      <c r="S4" s="3">
         <v>2025</v>
       </c>
-      <c r="O4" t="s">
+      <c r="T4" t="s">
         <v>26</v>
       </c>
-      <c r="P4" s="4">
+      <c r="V4" s="4">
         <v>123</v>
+      </c>
+    </row>
+    <row r="5" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>28</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E5" t="s">
+        <v>9</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="H5" s="1">
+        <v>1</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="J5" t="s">
+        <v>21</v>
+      </c>
+      <c r="K5" t="s">
+        <v>21</v>
+      </c>
+      <c r="L5" t="s">
+        <v>29</v>
+      </c>
+      <c r="M5" t="s">
+        <v>21</v>
+      </c>
+      <c r="N5" t="s">
+        <v>22</v>
+      </c>
+      <c r="O5">
+        <v>12345</v>
+      </c>
+      <c r="P5">
+        <v>9898989899</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C2" r:id="rId1" display="Mahendra@123.com" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
-    <hyperlink ref="B2" r:id="rId2" xr:uid="{F914D97D-9AB4-479F-B5C1-406A7A6E213A}"/>
-    <hyperlink ref="F2" r:id="rId3" xr:uid="{654737CF-7ECC-40EB-8F54-3F2A1D6BA9EB}"/>
-    <hyperlink ref="F3" r:id="rId4" xr:uid="{ED028C04-537D-4884-8D38-01B252339433}"/>
+    <hyperlink ref="C2" r:id="rId1" display="Mahendra@123.com"/>
+    <hyperlink ref="B2" r:id="rId2"/>
+    <hyperlink ref="F2" r:id="rId3"/>
+    <hyperlink ref="F3" r:id="rId4"/>
+    <hyperlink ref="F5" r:id="rId5"/>
+    <hyperlink ref="C5" r:id="rId6" display="Mahendra@123.com"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId5"/>
+  <pageSetup orientation="portrait" r:id="rId7"/>
 </worksheet>
 </file>
--- a/src/test/resources/TestData/Hydroflask/HydroTestData.xlsx
+++ b/src/test/resources/TestData/Hydroflask/HydroTestData.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="12420" windowHeight="5925"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14100" windowHeight="2535"/>
   </bookViews>
   <sheets>
     <sheet name="DataSet" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="45">
   <si>
     <t>UserName</t>
   </si>
@@ -130,6 +130,30 @@
   </si>
   <si>
     <t>ProblemDescription</t>
+  </si>
+  <si>
+    <t>Company</t>
+  </si>
+  <si>
+    <t>AssociationEmailAddress</t>
+  </si>
+  <si>
+    <t>ProdelerDetails</t>
+  </si>
+  <si>
+    <t>LotesWave</t>
+  </si>
+  <si>
+    <t>CommetsHydroflask</t>
+  </si>
+  <si>
+    <t xml:space="preserve">hello Team Testing </t>
+  </si>
+  <si>
+    <t>GropName</t>
+  </si>
+  <si>
+    <t>Friends of Hydro Flask</t>
   </si>
 </sst>
 </file>
@@ -473,31 +497,33 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:V5"/>
+  <dimension ref="A1:Z6"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="I3" sqref="I3"/>
+      <selection activeCell="H1" sqref="H1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18.140625" customWidth="1"/>
+    <col min="1" max="1" width="15.42578125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="24.7109375" customWidth="1"/>
     <col min="3" max="3" width="19.7109375" customWidth="1"/>
     <col min="4" max="4" width="10.85546875" customWidth="1"/>
     <col min="5" max="5" width="9.7109375" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="29.42578125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="34.140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="17.140625" customWidth="1"/>
-    <col min="9" max="9" width="18.28515625" customWidth="1"/>
-    <col min="12" max="12" width="17.28515625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="17.28515625" customWidth="1"/>
-    <col min="14" max="14" width="17.28515625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="13.42578125" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="27.28515625" customWidth="1"/>
+    <col min="7" max="9" width="28.28515625" customWidth="1"/>
+    <col min="10" max="10" width="10.5703125" customWidth="1"/>
+    <col min="11" max="11" width="34.140625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="17.140625" customWidth="1"/>
+    <col min="13" max="13" width="18.28515625" customWidth="1"/>
+    <col min="16" max="16" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="17.28515625" customWidth="1"/>
+    <col min="18" max="18" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="27.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>3</v>
       </c>
@@ -517,53 +543,65 @@
         <v>7</v>
       </c>
       <c r="G1" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="K1" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="L1" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="M1" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="N1" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="O1" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="P1" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="M1" s="2" t="s">
+      <c r="Q1" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="N1" s="2" t="s">
+      <c r="R1" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="O1" s="2" t="s">
+      <c r="S1" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="2" t="s">
+      <c r="T1" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="2" t="s">
+      <c r="U1" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="2" t="s">
+      <c r="V1" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="2" t="s">
+      <c r="W1" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="T1" s="2" t="s">
+      <c r="X1" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="U1" s="2"/>
-      <c r="V1" s="2" t="s">
+      <c r="Y1" s="2"/>
+      <c r="Z1" s="2" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -585,8 +623,12 @@
       <c r="G2" s="1"/>
       <c r="H2" s="1"/>
       <c r="I2" s="1"/>
+      <c r="J2" s="1"/>
+      <c r="K2" s="1"/>
+      <c r="L2" s="1"/>
+      <c r="M2" s="1"/>
     </row>
-    <row r="3" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>11</v>
       </c>
@@ -603,44 +645,48 @@
       <c r="G3" s="1"/>
       <c r="H3" s="1"/>
       <c r="I3" s="1"/>
-      <c r="J3" t="s">
+      <c r="J3" s="1"/>
+      <c r="K3" s="1"/>
+      <c r="L3" s="1"/>
+      <c r="M3" s="1"/>
+      <c r="N3" t="s">
         <v>21</v>
       </c>
-      <c r="K3" t="s">
+      <c r="O3" t="s">
         <v>21</v>
       </c>
-      <c r="N3" t="s">
+      <c r="R3" t="s">
         <v>22</v>
       </c>
-      <c r="O3">
+      <c r="S3">
         <v>12345</v>
       </c>
-      <c r="P3" s="4">
+      <c r="T3" s="4">
         <v>9898989899</v>
       </c>
     </row>
-    <row r="4" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>25</v>
       </c>
       <c r="C4" s="1"/>
-      <c r="Q4" t="s">
+      <c r="U4" t="s">
         <v>23</v>
       </c>
-      <c r="R4" s="5" t="s">
+      <c r="V4" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="S4" s="3">
+      <c r="W4" s="3">
         <v>2025</v>
       </c>
-      <c r="T4" t="s">
+      <c r="X4" t="s">
         <v>26</v>
       </c>
-      <c r="V4" s="4">
+      <c r="Z4" s="4">
         <v>123</v>
       </c>
     </row>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>28</v>
       </c>
@@ -656,35 +702,68 @@
       <c r="F5" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="G5" s="1" t="s">
+      <c r="G5" s="1"/>
+      <c r="H5" s="1"/>
+      <c r="I5" s="1"/>
+      <c r="J5" s="1"/>
+      <c r="K5" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="H5" s="1">
+      <c r="L5" s="1">
         <v>1</v>
       </c>
-      <c r="I5" s="1" t="s">
+      <c r="M5" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="J5" t="s">
+      <c r="N5" t="s">
         <v>21</v>
       </c>
-      <c r="K5" t="s">
+      <c r="O5" t="s">
         <v>21</v>
       </c>
-      <c r="L5" t="s">
+      <c r="P5" t="s">
         <v>29</v>
       </c>
-      <c r="M5" t="s">
+      <c r="Q5" t="s">
         <v>21</v>
       </c>
-      <c r="N5" t="s">
+      <c r="R5" t="s">
         <v>22</v>
       </c>
-      <c r="O5">
+      <c r="S5">
         <v>12345</v>
       </c>
-      <c r="P5">
+      <c r="T5">
         <v>9898989899</v>
+      </c>
+    </row>
+    <row r="6" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>39</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D6" t="s">
+        <v>8</v>
+      </c>
+      <c r="E6" t="s">
+        <v>9</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="J6" t="s">
+        <v>40</v>
       </c>
     </row>
   </sheetData>
@@ -695,8 +774,11 @@
     <hyperlink ref="F3" r:id="rId4"/>
     <hyperlink ref="F5" r:id="rId5"/>
     <hyperlink ref="C5" r:id="rId6" display="Mahendra@123.com"/>
+    <hyperlink ref="C6" r:id="rId7" display="Mahendra@123.com"/>
+    <hyperlink ref="F6" r:id="rId8"/>
+    <hyperlink ref="G6" r:id="rId9"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId7"/>
+  <pageSetup orientation="portrait" r:id="rId10"/>
 </worksheet>
 </file>
--- a/src/test/resources/TestData/Hydroflask/HydroTestData.xlsx
+++ b/src/test/resources/TestData/Hydroflask/HydroTestData.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14100" windowHeight="2535"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="13455" windowHeight="4260"/>
   </bookViews>
   <sheets>
     <sheet name="DataSet" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="96">
   <si>
     <t>UserName</t>
   </si>
@@ -42,118 +42,278 @@
     <t>LastName</t>
   </si>
   <si>
+    <t>mahendra</t>
+  </si>
+  <si>
+    <t>k</t>
+  </si>
+  <si>
+    <t>Mahendra123</t>
+  </si>
+  <si>
+    <t>Address</t>
+  </si>
+  <si>
+    <t>Street</t>
+  </si>
+  <si>
+    <t>City</t>
+  </si>
+  <si>
+    <t>postcode</t>
+  </si>
+  <si>
+    <t>phone</t>
+  </si>
+  <si>
+    <t>cardType</t>
+  </si>
+  <si>
+    <t>cardNumber</t>
+  </si>
+  <si>
+    <t>ExpYear</t>
+  </si>
+  <si>
+    <t>ExpMonth</t>
+  </si>
+  <si>
+    <t>cvv</t>
+  </si>
+  <si>
+    <t>CA</t>
+  </si>
+  <si>
+    <t>California</t>
+  </si>
+  <si>
+    <t>VISA</t>
+  </si>
+  <si>
+    <t>Region</t>
+  </si>
+  <si>
+    <t>PaymentDetails</t>
+  </si>
+  <si>
+    <t>Feb</t>
+  </si>
+  <si>
+    <t>4444444444444448</t>
+  </si>
+  <si>
+    <t>WarrantyDetails</t>
+  </si>
+  <si>
+    <t>United States (US)</t>
+  </si>
+  <si>
+    <t>Country</t>
+  </si>
+  <si>
+    <t>State</t>
+  </si>
+  <si>
+    <t>BBM001 (MEDIUM FLEX BOOT BLACK)</t>
+  </si>
+  <si>
+    <t>Products</t>
+  </si>
+  <si>
+    <t>ProductQuantity</t>
+  </si>
+  <si>
+    <t>scratch the outside of bottle</t>
+  </si>
+  <si>
+    <t>ProblemDescription</t>
+  </si>
+  <si>
+    <t>Company</t>
+  </si>
+  <si>
+    <t>AssociationEmailAddress</t>
+  </si>
+  <si>
+    <t>ProdelerDetails</t>
+  </si>
+  <si>
+    <t>LotesWave</t>
+  </si>
+  <si>
+    <t>CommetsHydroflask</t>
+  </si>
+  <si>
+    <t xml:space="preserve">hello Team Testing </t>
+  </si>
+  <si>
+    <t>GropName</t>
+  </si>
+  <si>
+    <t>Friends of Hydro Flask</t>
+  </si>
+  <si>
+    <t>contactusEmail</t>
+  </si>
+  <si>
+    <t>Howcanwehelp</t>
+  </si>
+  <si>
+    <t>Order Issues</t>
+  </si>
+  <si>
+    <t>category</t>
+  </si>
+  <si>
+    <t>Billing Issue</t>
+  </si>
+  <si>
+    <t>OrderNumber</t>
+  </si>
+  <si>
+    <t>OrderDate</t>
+  </si>
+  <si>
+    <t>10/29/2020</t>
+  </si>
+  <si>
+    <t>BillName</t>
+  </si>
+  <si>
+    <t>Manojk</t>
+  </si>
+  <si>
+    <t>Question</t>
+  </si>
+  <si>
+    <t xml:space="preserve">how can i get my order on time </t>
+  </si>
+  <si>
+    <t>Connecticut</t>
+  </si>
+  <si>
+    <t>844 N Colony Rd</t>
+  </si>
+  <si>
+    <t>Wallingford</t>
+  </si>
+  <si>
+    <t>06492</t>
+  </si>
+  <si>
+    <t>PaypalDetails</t>
+  </si>
+  <si>
+    <t>Skchinna28@gmail.com</t>
+  </si>
+  <si>
+    <t>Sravan@123</t>
+  </si>
+  <si>
     <t>Email</t>
   </si>
   <si>
-    <t>mahendra</t>
-  </si>
-  <si>
-    <t>k</t>
-  </si>
-  <si>
-    <t>Mahendra123</t>
-  </si>
-  <si>
-    <t>Address</t>
-  </si>
-  <si>
-    <t>Street</t>
-  </si>
-  <si>
-    <t>City</t>
-  </si>
-  <si>
-    <t>postcode</t>
-  </si>
-  <si>
-    <t>phone</t>
-  </si>
-  <si>
-    <t>cardType</t>
-  </si>
-  <si>
-    <t>cardNumber</t>
-  </si>
-  <si>
-    <t>ExpYear</t>
-  </si>
-  <si>
-    <t>ExpMonth</t>
-  </si>
-  <si>
-    <t>cvv</t>
-  </si>
-  <si>
-    <t>CA</t>
-  </si>
-  <si>
-    <t>California</t>
-  </si>
-  <si>
-    <t>VISA</t>
-  </si>
-  <si>
-    <t>Region</t>
-  </si>
-  <si>
-    <t>PaymentDetails</t>
-  </si>
-  <si>
-    <t>Feb</t>
-  </si>
-  <si>
-    <t>4444444444444448</t>
-  </si>
-  <si>
-    <t>WarrantyDetails</t>
-  </si>
-  <si>
-    <t>United States (US)</t>
-  </si>
-  <si>
-    <t>Country</t>
-  </si>
-  <si>
-    <t>State</t>
-  </si>
-  <si>
-    <t>BBM001 (MEDIUM FLEX BOOT BLACK)</t>
-  </si>
-  <si>
-    <t>Products</t>
-  </si>
-  <si>
-    <t>ProductQuantity</t>
-  </si>
-  <si>
-    <t>scratch the outside of bottle</t>
-  </si>
-  <si>
-    <t>ProblemDescription</t>
-  </si>
-  <si>
-    <t>Company</t>
-  </si>
-  <si>
-    <t>AssociationEmailAddress</t>
-  </si>
-  <si>
-    <t>ProdelerDetails</t>
-  </si>
-  <si>
-    <t>LotesWave</t>
-  </si>
-  <si>
-    <t>CommetsHydroflask</t>
-  </si>
-  <si>
-    <t xml:space="preserve">hello Team Testing </t>
-  </si>
-  <si>
-    <t>GropName</t>
-  </si>
-  <si>
-    <t>Friends of Hydro Flask</t>
+    <t>Promationcode</t>
+  </si>
+  <si>
+    <t>h20</t>
+  </si>
+  <si>
+    <t>Reviewtitle</t>
+  </si>
+  <si>
+    <t>recommendthiproduct</t>
+  </si>
+  <si>
+    <t>Nickname</t>
+  </si>
+  <si>
+    <t>Location</t>
+  </si>
+  <si>
+    <t>Average</t>
+  </si>
+  <si>
+    <t>Yes</t>
+  </si>
+  <si>
+    <t>OverallRating</t>
+  </si>
+  <si>
+    <t>Average Product</t>
+  </si>
+  <si>
+    <t>Manoj</t>
+  </si>
+  <si>
+    <t>Hyderabad</t>
+  </si>
+  <si>
+    <t>review</t>
+  </si>
+  <si>
+    <t>Age</t>
+  </si>
+  <si>
+    <t>gender</t>
+  </si>
+  <si>
+    <t>ProductRating</t>
+  </si>
+  <si>
+    <t>valueofProductRating</t>
+  </si>
+  <si>
+    <t>Male</t>
+  </si>
+  <si>
+    <t>Good</t>
+  </si>
+  <si>
+    <t>Fair</t>
+  </si>
+  <si>
+    <t>Pleasetelluswhy</t>
+  </si>
+  <si>
+    <t>good product and looking good design</t>
+  </si>
+  <si>
+    <t>ReviewDescription</t>
+  </si>
+  <si>
+    <t>Its vacuum-insulated, 
+32-fluid-ounce body
+ does a great job at 
+keeping a lot of liquids 
+hot or cold for extended
+ amounts of time,
+ regardless of the 
+external temperature.</t>
+  </si>
+  <si>
+    <t>HydroFlaskOverallRating</t>
+  </si>
+  <si>
+    <t>AddressBook</t>
+  </si>
+  <si>
+    <t>Forgetpassword</t>
+  </si>
+  <si>
+    <t>editAccountInformation</t>
+  </si>
+  <si>
+    <t>Newpassword</t>
+  </si>
+  <si>
+    <t>Mahendraselenium123</t>
+  </si>
+  <si>
+    <t>NewEmail</t>
+  </si>
+  <si>
+    <t>mahendr.seleniumt@gmail.com</t>
   </si>
 </sst>
 </file>
@@ -163,7 +323,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0;[Red]0"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -175,6 +335,13 @@
       <u/>
       <sz val="11"/>
       <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF1F497D"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -207,7 +374,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
@@ -215,6 +382,14 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -497,33 +672,52 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Z6"/>
+  <dimension ref="A1:AU13"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="H1" sqref="H1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="24.7109375" customWidth="1"/>
+    <col min="1" max="1" width="22.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="26.85546875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="19.7109375" customWidth="1"/>
-    <col min="4" max="4" width="10.85546875" customWidth="1"/>
+    <col min="4" max="4" width="10.140625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="29.42578125" bestFit="1" customWidth="1"/>
-    <col min="7" max="9" width="28.28515625" customWidth="1"/>
-    <col min="10" max="10" width="10.5703125" customWidth="1"/>
-    <col min="11" max="11" width="34.140625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="17.140625" customWidth="1"/>
-    <col min="13" max="13" width="18.28515625" customWidth="1"/>
-    <col min="16" max="16" width="17.28515625" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="17.28515625" customWidth="1"/>
+    <col min="6" max="8" width="32.28515625" customWidth="1"/>
+    <col min="9" max="9" width="29.42578125" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="28.28515625" customWidth="1"/>
+    <col min="12" max="12" width="10.5703125" customWidth="1"/>
+    <col min="13" max="13" width="34.140625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="17.140625" customWidth="1"/>
+    <col min="15" max="15" width="18.28515625" customWidth="1"/>
+    <col min="16" max="16" width="16.140625" customWidth="1"/>
+    <col min="17" max="17" width="11.42578125" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="17.28515625" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="13.42578125" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="27.28515625" customWidth="1"/>
+    <col min="19" max="19" width="17.28515625" customWidth="1"/>
+    <col min="20" max="20" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="27.28515625" customWidth="1"/>
+    <col min="28" max="28" width="4" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="29.28515625" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="14.7109375" customWidth="1"/>
+    <col min="37" max="37" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="21.140625" customWidth="1"/>
+    <col min="39" max="39" width="21.42578125" bestFit="1" customWidth="1"/>
+    <col min="41" max="41" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="44" max="44" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="45" max="45" width="20.42578125" bestFit="1" customWidth="1"/>
+    <col min="46" max="46" width="23.140625" bestFit="1" customWidth="1"/>
+    <col min="47" max="47" width="35.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>3</v>
       </c>
@@ -540,68 +734,131 @@
         <v>6</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>7</v>
+        <v>63</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>38</v>
+        <v>94</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>43</v>
+        <v>92</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="K1" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="N1" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="L1" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="M1" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="N1" s="2" t="s">
+      <c r="O1" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="P1" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q1" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="O1" s="2" t="s">
+      <c r="R1" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="S1" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="T1" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="U1" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="P1" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q1" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="R1" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="S1" s="2" t="s">
+      <c r="V1" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="T1" s="2" t="s">
+      <c r="W1" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="U1" s="2" t="s">
+      <c r="X1" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="V1" s="2" t="s">
+      <c r="Y1" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="W1" s="2" t="s">
+      <c r="Z1" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="X1" s="2" t="s">
+      <c r="AA1" s="2"/>
+      <c r="AB1" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="Y1" s="2"/>
-      <c r="Z1" s="2" t="s">
-        <v>20</v>
+      <c r="AC1" t="s">
+        <v>45</v>
+      </c>
+      <c r="AD1" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="AE1" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="AF1" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="AG1" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="AH1" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="AI1" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="AJ1" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="AK1" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="AL1" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="AM1" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="AN1" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="AO1" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="AP1" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="AQ1" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="AR1" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="AS1" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="AT1" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="AU1" s="2" t="s">
+        <v>84</v>
       </c>
     </row>
-    <row r="2" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -609,13 +866,13 @@
         <v>2</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" t="s">
         <v>8</v>
-      </c>
-      <c r="E2" t="s">
-        <v>9</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>2</v>
@@ -627,17 +884,19 @@
       <c r="K2" s="1"/>
       <c r="L2" s="1"/>
       <c r="M2" s="1"/>
+      <c r="N2" s="1"/>
+      <c r="O2" s="1"/>
     </row>
-    <row r="3" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>11</v>
+        <v>89</v>
       </c>
       <c r="C3" s="1"/>
       <c r="D3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3" t="s">
         <v>8</v>
-      </c>
-      <c r="E3" t="s">
-        <v>9</v>
       </c>
       <c r="F3" s="1" t="s">
         <v>2</v>
@@ -649,136 +908,372 @@
       <c r="K3" s="1"/>
       <c r="L3" s="1"/>
       <c r="M3" s="1"/>
-      <c r="N3" t="s">
-        <v>21</v>
-      </c>
-      <c r="O3" t="s">
-        <v>21</v>
-      </c>
-      <c r="R3" t="s">
+      <c r="N3" s="1"/>
+      <c r="O3" s="1"/>
+      <c r="P3" t="s">
+        <v>57</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>58</v>
+      </c>
+      <c r="S3" t="s">
+        <v>56</v>
+      </c>
+      <c r="T3" t="s">
+        <v>56</v>
+      </c>
+      <c r="U3" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="V3" s="4">
+        <v>9898989899</v>
+      </c>
+    </row>
+    <row r="4" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" s="1"/>
+      <c r="D4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="G4" s="1"/>
+      <c r="H4" s="1"/>
+      <c r="I4" s="1"/>
+      <c r="J4" s="1"/>
+      <c r="K4" s="1"/>
+      <c r="L4" s="1"/>
+      <c r="M4" s="1"/>
+      <c r="N4" s="1"/>
+      <c r="O4" s="1"/>
+      <c r="P4" t="s">
+        <v>57</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>58</v>
+      </c>
+      <c r="S4" t="s">
+        <v>56</v>
+      </c>
+      <c r="T4" t="s">
+        <v>56</v>
+      </c>
+      <c r="U4" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="V4" s="4">
+        <v>9898989899</v>
+      </c>
+    </row>
+    <row r="5" spans="1:47" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C5" s="1"/>
+      <c r="W5" t="s">
         <v>22</v>
       </c>
-      <c r="S3">
-        <v>12345</v>
-      </c>
-      <c r="T3" s="4">
-        <v>9898989899</v>
+      <c r="X5" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="Y5" s="3">
+        <v>2025</v>
+      </c>
+      <c r="Z5" t="s">
+        <v>25</v>
+      </c>
+      <c r="AB5" s="4">
+        <v>123</v>
       </c>
     </row>
-    <row r="4" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>25</v>
-      </c>
-      <c r="C4" s="1"/>
-      <c r="U4" t="s">
-        <v>23</v>
-      </c>
-      <c r="V4" s="5" t="s">
+    <row r="6" spans="1:47" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
         <v>27</v>
       </c>
-      <c r="W4" s="3">
-        <v>2025</v>
-      </c>
-      <c r="X4" t="s">
-        <v>26</v>
-      </c>
-      <c r="Z4" s="4">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="5" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>28</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D5" t="s">
+      <c r="C6" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D6" t="s">
+        <v>7</v>
+      </c>
+      <c r="E6" t="s">
         <v>8</v>
-      </c>
-      <c r="E5" t="s">
-        <v>9</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="G5" s="1"/>
-      <c r="H5" s="1"/>
-      <c r="I5" s="1"/>
-      <c r="J5" s="1"/>
-      <c r="K5" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="L5" s="1">
-        <v>1</v>
-      </c>
-      <c r="M5" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="N5" t="s">
-        <v>21</v>
-      </c>
-      <c r="O5" t="s">
-        <v>21</v>
-      </c>
-      <c r="P5" t="s">
-        <v>29</v>
-      </c>
-      <c r="Q5" t="s">
-        <v>21</v>
-      </c>
-      <c r="R5" t="s">
-        <v>22</v>
-      </c>
-      <c r="S5">
-        <v>12345</v>
-      </c>
-      <c r="T5">
-        <v>9898989899</v>
-      </c>
-    </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>39</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D6" t="s">
-        <v>8</v>
-      </c>
-      <c r="E6" t="s">
-        <v>9</v>
       </c>
       <c r="F6" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="G6" s="1" t="s">
+      <c r="G6" s="1"/>
+      <c r="H6" s="1"/>
+      <c r="I6" s="1"/>
+      <c r="J6" s="1"/>
+      <c r="K6" s="1"/>
+      <c r="L6" s="1"/>
+      <c r="M6" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="N6" s="1">
+        <v>1</v>
+      </c>
+      <c r="O6" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="P6" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q6" t="s">
+        <v>20</v>
+      </c>
+      <c r="R6" t="s">
+        <v>28</v>
+      </c>
+      <c r="S6" t="s">
+        <v>20</v>
+      </c>
+      <c r="T6" t="s">
+        <v>21</v>
+      </c>
+      <c r="U6">
+        <v>12345</v>
+      </c>
+      <c r="V6">
+        <v>9898989899</v>
+      </c>
+    </row>
+    <row r="7" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>38</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D7" t="s">
+        <v>7</v>
+      </c>
+      <c r="E7" t="s">
+        <v>8</v>
+      </c>
+      <c r="F7" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="H6" s="1" t="s">
+      <c r="G7" s="1"/>
+      <c r="H7" s="1"/>
+      <c r="I7" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="J7" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="K7" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="L7" t="s">
+        <v>39</v>
+      </c>
+      <c r="P7" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q7" t="s">
+        <v>20</v>
+      </c>
+      <c r="R7" t="s">
+        <v>28</v>
+      </c>
+      <c r="S7" t="s">
+        <v>20</v>
+      </c>
+      <c r="T7" t="s">
+        <v>21</v>
+      </c>
+      <c r="U7">
+        <v>12345</v>
+      </c>
+      <c r="V7">
+        <v>9898989899</v>
+      </c>
+    </row>
+    <row r="8" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
         <v>44</v>
       </c>
-      <c r="I6" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="J6" t="s">
-        <v>40</v>
+      <c r="D8" t="s">
+        <v>7</v>
+      </c>
+      <c r="E8" t="s">
+        <v>8</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="G8" s="1"/>
+      <c r="H8" s="1"/>
+      <c r="L8" t="s">
+        <v>39</v>
+      </c>
+      <c r="P8" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q8" t="s">
+        <v>20</v>
+      </c>
+      <c r="R8" t="s">
+        <v>28</v>
+      </c>
+      <c r="S8" t="s">
+        <v>20</v>
+      </c>
+      <c r="T8" t="s">
+        <v>21</v>
+      </c>
+      <c r="U8">
+        <v>12345</v>
+      </c>
+      <c r="V8">
+        <v>9898989899</v>
+      </c>
+      <c r="AC8" t="s">
+        <v>46</v>
+      </c>
+      <c r="AD8" t="s">
+        <v>48</v>
+      </c>
+      <c r="AE8">
+        <v>123456</v>
+      </c>
+      <c r="AF8" t="s">
+        <v>51</v>
+      </c>
+      <c r="AG8" t="s">
+        <v>53</v>
+      </c>
+      <c r="AH8" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="9" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>60</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="E9" s="7"/>
+      <c r="F9" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="G9" s="1"/>
+      <c r="H9" s="1"/>
+    </row>
+    <row r="10" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>64</v>
+      </c>
+      <c r="AI10" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="11" spans="1:47" s="8" customFormat="1" ht="150" x14ac:dyDescent="0.25">
+      <c r="A11" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="F11" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="AJ11" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="AK11" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="AL11" s="9" t="s">
+        <v>87</v>
+      </c>
+      <c r="AM11" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="AN11" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="AO11" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="AP11" s="8">
+        <v>27</v>
+      </c>
+      <c r="AQ11" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="AR11" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="AS11" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="AT11" s="8">
+        <v>2</v>
+      </c>
+      <c r="AU11" s="8" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="12" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>90</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="G12" s="1"/>
+      <c r="H12" s="1"/>
+    </row>
+    <row r="13" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>91</v>
+      </c>
+      <c r="C13" t="s">
+        <v>9</v>
+      </c>
+      <c r="D13" t="s">
+        <v>7</v>
+      </c>
+      <c r="E13" t="s">
+        <v>8</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="H13" s="1" t="s">
+        <v>93</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C2" r:id="rId1" display="Mahendra@123.com"/>
+    <hyperlink ref="C2" r:id="rId1" display="Testautomation@3"/>
     <hyperlink ref="B2" r:id="rId2"/>
     <hyperlink ref="F2" r:id="rId3"/>
-    <hyperlink ref="F3" r:id="rId4"/>
-    <hyperlink ref="F5" r:id="rId5"/>
-    <hyperlink ref="C5" r:id="rId6" display="Mahendra@123.com"/>
-    <hyperlink ref="C6" r:id="rId7" display="Mahendra@123.com"/>
-    <hyperlink ref="F6" r:id="rId8"/>
-    <hyperlink ref="G6" r:id="rId9"/>
+    <hyperlink ref="F4" r:id="rId4"/>
+    <hyperlink ref="F6" r:id="rId5"/>
+    <hyperlink ref="C6" r:id="rId6" display="Mahendra@123.com"/>
+    <hyperlink ref="C7" r:id="rId7" display="Mahendra@123.com"/>
+    <hyperlink ref="F7" r:id="rId8"/>
+    <hyperlink ref="I7" r:id="rId9"/>
+    <hyperlink ref="F8" r:id="rId10"/>
+    <hyperlink ref="F9" r:id="rId11"/>
+    <hyperlink ref="C9" r:id="rId12"/>
+    <hyperlink ref="F3" r:id="rId13"/>
+    <hyperlink ref="F12" r:id="rId14"/>
+    <hyperlink ref="F13" r:id="rId15"/>
+    <hyperlink ref="G13" r:id="rId16"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId10"/>
+  <pageSetup orientation="portrait" r:id="rId17"/>
 </worksheet>
 </file>
--- a/src/test/resources/TestData/Hydroflask/HydroTestData.xlsx
+++ b/src/test/resources/TestData/Hydroflask/HydroTestData.xlsx
@@ -243,9 +243,6 @@
     <t>Average Product</t>
   </si>
   <si>
-    <t>Manoj</t>
-  </si>
-  <si>
     <t>Hyderabad</t>
   </si>
   <si>
@@ -314,6 +311,9 @@
   </si>
   <si>
     <t>mahendr.seleniumt@gmail.com</t>
+  </si>
+  <si>
+    <t>Manoj</t>
   </si>
 </sst>
 </file>
@@ -674,8 +674,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AU13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+    <sheetView tabSelected="1" topLeftCell="AE1" workbookViewId="0">
+      <selection activeCell="AN11" sqref="AN11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -737,10 +737,10 @@
         <v>63</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I1" s="2" t="s">
         <v>37</v>
@@ -828,7 +828,7 @@
         <v>66</v>
       </c>
       <c r="AL1" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="AM1" s="2" t="s">
         <v>67</v>
@@ -840,22 +840,22 @@
         <v>69</v>
       </c>
       <c r="AP1" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="AQ1" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="AQ1" s="2" t="s">
+      <c r="AR1" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="AR1" s="2" t="s">
+      <c r="AS1" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="AS1" s="2" t="s">
-        <v>80</v>
-      </c>
       <c r="AT1" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="AU1" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="2" spans="1:47" x14ac:dyDescent="0.25">
@@ -889,7 +889,7 @@
     </row>
     <row r="3" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C3" s="1"/>
       <c r="D3" t="s">
@@ -1179,7 +1179,7 @@
     </row>
     <row r="11" spans="1:47" s="8" customFormat="1" ht="150" x14ac:dyDescent="0.25">
       <c r="A11" s="8" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="F11" s="8" t="s">
         <v>61</v>
@@ -1191,39 +1191,39 @@
         <v>73</v>
       </c>
       <c r="AL11" s="9" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="AM11" s="8" t="s">
         <v>71</v>
       </c>
       <c r="AN11" s="8" t="s">
+        <v>95</v>
+      </c>
+      <c r="AO11" s="8" t="s">
         <v>74</v>
-      </c>
-      <c r="AO11" s="8" t="s">
-        <v>75</v>
       </c>
       <c r="AP11" s="8">
         <v>27</v>
       </c>
       <c r="AQ11" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="AR11" s="8" t="s">
         <v>81</v>
       </c>
-      <c r="AR11" s="8" t="s">
+      <c r="AS11" s="8" t="s">
         <v>82</v>
-      </c>
-      <c r="AS11" s="8" t="s">
-        <v>83</v>
       </c>
       <c r="AT11" s="8">
         <v>2</v>
       </c>
       <c r="AU11" s="8" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="12" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="F12" s="1" t="s">
         <v>2</v>
@@ -1233,7 +1233,7 @@
     </row>
     <row r="13" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C13" t="s">
         <v>9</v>
@@ -1248,10 +1248,10 @@
         <v>2</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
   </sheetData>

--- a/src/test/resources/TestData/Hydroflask/HydroTestData.xlsx
+++ b/src/test/resources/TestData/Hydroflask/HydroTestData.xlsx
@@ -1,15 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23426"/>
+  <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{C98EF697-2B26-4541-8D9D-4FF1870F109F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="13455" windowHeight="4260"/>
+    <workbookView xWindow="2340" yWindow="2340" windowWidth="13515" windowHeight="11070" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DataSet" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="0"/>
+  <oleSize ref="T1:AD11"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -319,7 +321,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0;[Red]0"/>
   </numFmts>
@@ -671,11 +673,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AU13"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AE1" workbookViewId="0">
-      <selection activeCell="AN11" sqref="AN11"/>
+    <sheetView tabSelected="1" topLeftCell="T1" workbookViewId="0">
+      <selection activeCell="Z5" sqref="Z5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1256,22 +1258,22 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C2" r:id="rId1" display="Testautomation@3"/>
-    <hyperlink ref="B2" r:id="rId2"/>
-    <hyperlink ref="F2" r:id="rId3"/>
-    <hyperlink ref="F4" r:id="rId4"/>
-    <hyperlink ref="F6" r:id="rId5"/>
-    <hyperlink ref="C6" r:id="rId6" display="Mahendra@123.com"/>
-    <hyperlink ref="C7" r:id="rId7" display="Mahendra@123.com"/>
-    <hyperlink ref="F7" r:id="rId8"/>
-    <hyperlink ref="I7" r:id="rId9"/>
-    <hyperlink ref="F8" r:id="rId10"/>
-    <hyperlink ref="F9" r:id="rId11"/>
-    <hyperlink ref="C9" r:id="rId12"/>
-    <hyperlink ref="F3" r:id="rId13"/>
-    <hyperlink ref="F12" r:id="rId14"/>
-    <hyperlink ref="F13" r:id="rId15"/>
-    <hyperlink ref="G13" r:id="rId16"/>
+    <hyperlink ref="C2" r:id="rId1" display="Testautomation@3" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="B2" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="F2" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="F4" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
+    <hyperlink ref="F6" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
+    <hyperlink ref="C6" r:id="rId6" display="Mahendra@123.com" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
+    <hyperlink ref="C7" r:id="rId7" display="Mahendra@123.com" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
+    <hyperlink ref="F7" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
+    <hyperlink ref="I7" r:id="rId9" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
+    <hyperlink ref="F8" r:id="rId10" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
+    <hyperlink ref="F9" r:id="rId11" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
+    <hyperlink ref="C9" r:id="rId12" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
+    <hyperlink ref="F3" r:id="rId13" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
+    <hyperlink ref="F12" r:id="rId14" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
+    <hyperlink ref="F13" r:id="rId15" xr:uid="{00000000-0004-0000-0000-00000E000000}"/>
+    <hyperlink ref="G13" r:id="rId16" xr:uid="{00000000-0004-0000-0000-00000F000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId17"/>

--- a/src/test/resources/TestData/Hydroflask/HydroTestData.xlsx
+++ b/src/test/resources/TestData/Hydroflask/HydroTestData.xlsx
@@ -3,15 +3,14 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23426"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{C98EF697-2B26-4541-8D9D-4FF1870F109F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA59689D-1F55-480D-9B35-9AF266E8284A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2340" yWindow="2340" windowWidth="13515" windowHeight="11070" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20580" windowHeight="8820" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DataSet" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="0"/>
-  <oleSize ref="T1:AD11"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -21,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="98">
   <si>
     <t>UserName</t>
   </si>
@@ -315,7 +314,13 @@
     <t>mahendr.seleniumt@gmail.com</t>
   </si>
   <si>
-    <t>Manoj</t>
+    <t>Manokio</t>
+  </si>
+  <si>
+    <t>4444444444444459</t>
+  </si>
+  <si>
+    <t>invlidPaymentDetails</t>
   </si>
 </sst>
 </file>
@@ -674,10 +679,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AU13"/>
+  <dimension ref="A1:AU14"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="T1" workbookViewId="0">
-      <selection activeCell="Z5" sqref="Z5"/>
+    <sheetView tabSelected="1" topLeftCell="N1" workbookViewId="0">
+      <selection activeCell="X4" sqref="X4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1256,6 +1261,27 @@
         <v>92</v>
       </c>
     </row>
+    <row r="14" spans="1:47" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>97</v>
+      </c>
+      <c r="C14" s="1"/>
+      <c r="W14" t="s">
+        <v>22</v>
+      </c>
+      <c r="X14" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="Y14" s="3">
+        <v>2025</v>
+      </c>
+      <c r="Z14" t="s">
+        <v>25</v>
+      </c>
+      <c r="AB14" s="4">
+        <v>123</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="C2" r:id="rId1" display="Testautomation@3" xr:uid="{00000000-0004-0000-0000-000000000000}"/>

--- a/src/test/resources/TestData/Hydroflask/HydroTestData.xlsx
+++ b/src/test/resources/TestData/Hydroflask/HydroTestData.xlsx
@@ -3,14 +3,15 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23426"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA59689D-1F55-480D-9B35-9AF266E8284A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{8467C21F-3FFF-4B15-961B-D67292BA99FD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20580" windowHeight="8820" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1560" yWindow="1560" windowWidth="20340" windowHeight="9360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DataSet" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="0"/>
+  <oleSize ref="A1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -20,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="100">
   <si>
     <t>UserName</t>
   </si>
@@ -206,9 +207,6 @@
   </si>
   <si>
     <t>Skchinna28@gmail.com</t>
-  </si>
-  <si>
-    <t>Sravan@123</t>
   </si>
   <si>
     <t>Email</t>
@@ -321,6 +319,15 @@
   </si>
   <si>
     <t>invlidPaymentDetails</t>
+  </si>
+  <si>
+    <t>mahe</t>
+  </si>
+  <si>
+    <t>oxobuyer@oxo.com</t>
+  </si>
+  <si>
+    <t>oxobuyer123</t>
   </si>
 </sst>
 </file>
@@ -681,8 +688,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AU14"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="N1" workbookViewId="0">
-      <selection activeCell="X4" sqref="X4"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -741,13 +748,13 @@
         <v>6</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="I1" s="2" t="s">
         <v>37</v>
@@ -826,43 +833,43 @@
         <v>54</v>
       </c>
       <c r="AI1" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="AJ1" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="AK1" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="AL1" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="AM1" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="AL1" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="AM1" s="2" t="s">
+      <c r="AN1" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="AN1" s="2" t="s">
+      <c r="AO1" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="AO1" s="2" t="s">
-        <v>69</v>
-      </c>
       <c r="AP1" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="AQ1" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="AQ1" s="2" t="s">
+      <c r="AR1" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="AR1" s="2" t="s">
+      <c r="AS1" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="AS1" s="2" t="s">
-        <v>79</v>
-      </c>
       <c r="AT1" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="AU1" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="2" spans="1:47" x14ac:dyDescent="0.25">
@@ -876,7 +883,7 @@
         <v>9</v>
       </c>
       <c r="D2" t="s">
-        <v>7</v>
+        <v>97</v>
       </c>
       <c r="E2" t="s">
         <v>8</v>
@@ -896,7 +903,7 @@
     </row>
     <row r="3" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C3" s="1"/>
       <c r="D3" t="s">
@@ -1167,70 +1174,70 @@
         <v>60</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>62</v>
+        <v>99</v>
       </c>
       <c r="E9" s="7"/>
       <c r="F9" s="1" t="s">
-        <v>61</v>
+        <v>98</v>
       </c>
       <c r="G9" s="1"/>
       <c r="H9" s="1"/>
     </row>
     <row r="10" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
+        <v>63</v>
+      </c>
+      <c r="AI10" t="s">
         <v>64</v>
-      </c>
-      <c r="AI10" t="s">
-        <v>65</v>
       </c>
     </row>
     <row r="11" spans="1:47" s="8" customFormat="1" ht="150" x14ac:dyDescent="0.25">
       <c r="A11" s="8" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F11" s="8" t="s">
         <v>61</v>
       </c>
       <c r="AJ11" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="AK11" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="AL11" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="AM11" s="8" t="s">
         <v>70</v>
       </c>
-      <c r="AK11" s="8" t="s">
+      <c r="AN11" s="8" t="s">
+        <v>94</v>
+      </c>
+      <c r="AO11" s="8" t="s">
         <v>73</v>
-      </c>
-      <c r="AL11" s="9" t="s">
-        <v>86</v>
-      </c>
-      <c r="AM11" s="8" t="s">
-        <v>71</v>
-      </c>
-      <c r="AN11" s="8" t="s">
-        <v>95</v>
-      </c>
-      <c r="AO11" s="8" t="s">
-        <v>74</v>
       </c>
       <c r="AP11" s="8">
         <v>27</v>
       </c>
       <c r="AQ11" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="AR11" s="8" t="s">
         <v>80</v>
       </c>
-      <c r="AR11" s="8" t="s">
+      <c r="AS11" s="8" t="s">
         <v>81</v>
-      </c>
-      <c r="AS11" s="8" t="s">
-        <v>82</v>
       </c>
       <c r="AT11" s="8">
         <v>2</v>
       </c>
       <c r="AU11" s="8" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="12" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F12" s="1" t="s">
         <v>2</v>
@@ -1240,7 +1247,7 @@
     </row>
     <row r="13" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C13" t="s">
         <v>9</v>
@@ -1255,22 +1262,22 @@
         <v>2</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="14" spans="1:47" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C14" s="1"/>
       <c r="W14" t="s">
         <v>22</v>
       </c>
       <c r="X14" s="5" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="Y14" s="3">
         <v>2025</v>
@@ -1295,13 +1302,12 @@
     <hyperlink ref="I7" r:id="rId9" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
     <hyperlink ref="F8" r:id="rId10" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
     <hyperlink ref="F9" r:id="rId11" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
-    <hyperlink ref="C9" r:id="rId12" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
-    <hyperlink ref="F3" r:id="rId13" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
-    <hyperlink ref="F12" r:id="rId14" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
-    <hyperlink ref="F13" r:id="rId15" xr:uid="{00000000-0004-0000-0000-00000E000000}"/>
-    <hyperlink ref="G13" r:id="rId16" xr:uid="{00000000-0004-0000-0000-00000F000000}"/>
+    <hyperlink ref="F3" r:id="rId12" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
+    <hyperlink ref="F12" r:id="rId13" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
+    <hyperlink ref="F13" r:id="rId14" xr:uid="{00000000-0004-0000-0000-00000E000000}"/>
+    <hyperlink ref="G13" r:id="rId15" xr:uid="{00000000-0004-0000-0000-00000F000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId17"/>
+  <pageSetup orientation="portrait" r:id="rId16"/>
 </worksheet>
 </file>
--- a/src/test/resources/TestData/Hydroflask/HydroTestData.xlsx
+++ b/src/test/resources/TestData/Hydroflask/HydroTestData.xlsx
@@ -1,17 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23426"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23801"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{8467C21F-3FFF-4B15-961B-D67292BA99FD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D07284F-AFB3-4484-BD2B-9D4979261B9F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1560" yWindow="1560" windowWidth="20340" windowHeight="9360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20580" windowHeight="8820" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DataSet" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="0"/>
-  <oleSize ref="A1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -21,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="103">
   <si>
     <t>UserName</t>
   </si>
@@ -328,6 +327,15 @@
   </si>
   <si>
     <t>oxobuyer123</t>
+  </si>
+  <si>
+    <t>MasterCard</t>
+  </si>
+  <si>
+    <t>5111005111051128</t>
+  </si>
+  <si>
+    <t>Ccmastercard</t>
   </si>
 </sst>
 </file>
@@ -388,7 +396,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
@@ -404,6 +412,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -686,10 +697,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AU14"/>
+  <dimension ref="A1:AU15"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -712,6 +723,7 @@
     <col min="19" max="19" width="17.28515625" customWidth="1"/>
     <col min="20" max="20" width="17.28515625" bestFit="1" customWidth="1"/>
     <col min="22" max="22" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="11.140625" bestFit="1" customWidth="1"/>
     <col min="24" max="24" width="27.28515625" customWidth="1"/>
     <col min="28" max="28" width="4" bestFit="1" customWidth="1"/>
     <col min="29" max="29" width="16.140625" bestFit="1" customWidth="1"/>
@@ -987,14 +999,14 @@
     </row>
     <row r="5" spans="1:47" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>24</v>
+        <v>102</v>
       </c>
       <c r="C5" s="1"/>
       <c r="W5" t="s">
-        <v>22</v>
-      </c>
-      <c r="X5" s="5" t="s">
-        <v>26</v>
+        <v>100</v>
+      </c>
+      <c r="X5" s="10" t="s">
+        <v>101</v>
       </c>
       <c r="Y5" s="3">
         <v>2025</v>
@@ -1006,62 +1018,30 @@
         <v>123</v>
       </c>
     </row>
-    <row r="6" spans="1:47" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:47" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C6" s="1"/>
+      <c r="W6" t="s">
+        <v>22</v>
+      </c>
+      <c r="X6" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="Y6" s="3">
+        <v>2025</v>
+      </c>
+      <c r="Z6" t="s">
+        <v>25</v>
+      </c>
+      <c r="AB6" s="4">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="7" spans="1:47" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
         <v>27</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D6" t="s">
-        <v>7</v>
-      </c>
-      <c r="E6" t="s">
-        <v>8</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="G6" s="1"/>
-      <c r="H6" s="1"/>
-      <c r="I6" s="1"/>
-      <c r="J6" s="1"/>
-      <c r="K6" s="1"/>
-      <c r="L6" s="1"/>
-      <c r="M6" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="N6" s="1">
-        <v>1</v>
-      </c>
-      <c r="O6" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="P6" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q6" t="s">
-        <v>20</v>
-      </c>
-      <c r="R6" t="s">
-        <v>28</v>
-      </c>
-      <c r="S6" t="s">
-        <v>20</v>
-      </c>
-      <c r="T6" t="s">
-        <v>21</v>
-      </c>
-      <c r="U6">
-        <v>12345</v>
-      </c>
-      <c r="V6">
-        <v>9898989899</v>
-      </c>
-    </row>
-    <row r="7" spans="1:47" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>38</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>9</v>
@@ -1077,17 +1057,18 @@
       </c>
       <c r="G7" s="1"/>
       <c r="H7" s="1"/>
-      <c r="I7" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="J7" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="K7" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="L7" t="s">
-        <v>39</v>
+      <c r="I7" s="1"/>
+      <c r="J7" s="1"/>
+      <c r="K7" s="1"/>
+      <c r="L7" s="1"/>
+      <c r="M7" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="N7" s="1">
+        <v>1</v>
+      </c>
+      <c r="O7" s="1" t="s">
+        <v>34</v>
       </c>
       <c r="P7" t="s">
         <v>20</v>
@@ -1113,7 +1094,10 @@
     </row>
     <row r="8" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>44</v>
+        <v>38</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>9</v>
       </c>
       <c r="D8" t="s">
         <v>7</v>
@@ -1126,6 +1110,15 @@
       </c>
       <c r="G8" s="1"/>
       <c r="H8" s="1"/>
+      <c r="I8" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="J8" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="K8" s="1" t="s">
+        <v>41</v>
+      </c>
       <c r="L8" t="s">
         <v>39</v>
       </c>
@@ -1150,142 +1143,182 @@
       <c r="V8">
         <v>9898989899</v>
       </c>
-      <c r="AC8" t="s">
-        <v>46</v>
-      </c>
-      <c r="AD8" t="s">
-        <v>48</v>
-      </c>
-      <c r="AE8">
-        <v>123456</v>
-      </c>
-      <c r="AF8" t="s">
-        <v>51</v>
-      </c>
-      <c r="AG8" t="s">
-        <v>53</v>
-      </c>
-      <c r="AH8" t="s">
-        <v>55</v>
-      </c>
     </row>
     <row r="9" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>60</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="E9" s="7"/>
+        <v>44</v>
+      </c>
+      <c r="D9" t="s">
+        <v>7</v>
+      </c>
+      <c r="E9" t="s">
+        <v>8</v>
+      </c>
       <c r="F9" s="1" t="s">
-        <v>98</v>
+        <v>2</v>
       </c>
       <c r="G9" s="1"/>
       <c r="H9" s="1"/>
+      <c r="L9" t="s">
+        <v>39</v>
+      </c>
+      <c r="P9" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q9" t="s">
+        <v>20</v>
+      </c>
+      <c r="R9" t="s">
+        <v>28</v>
+      </c>
+      <c r="S9" t="s">
+        <v>20</v>
+      </c>
+      <c r="T9" t="s">
+        <v>21</v>
+      </c>
+      <c r="U9">
+        <v>12345</v>
+      </c>
+      <c r="V9">
+        <v>9898989899</v>
+      </c>
+      <c r="AC9" t="s">
+        <v>46</v>
+      </c>
+      <c r="AD9" t="s">
+        <v>48</v>
+      </c>
+      <c r="AE9">
+        <v>123456</v>
+      </c>
+      <c r="AF9" t="s">
+        <v>51</v>
+      </c>
+      <c r="AG9" t="s">
+        <v>53</v>
+      </c>
+      <c r="AH9" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="10" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
+        <v>60</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="E10" s="7"/>
+      <c r="F10" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="G10" s="1"/>
+      <c r="H10" s="1"/>
+    </row>
+    <row r="11" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
         <v>63</v>
       </c>
-      <c r="AI10" t="s">
+      <c r="AI11" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="11" spans="1:47" s="8" customFormat="1" ht="150" x14ac:dyDescent="0.25">
-      <c r="A11" s="8" t="s">
+    <row r="12" spans="1:47" s="8" customFormat="1" ht="150" x14ac:dyDescent="0.25">
+      <c r="A12" s="8" t="s">
         <v>74</v>
       </c>
-      <c r="F11" s="8" t="s">
+      <c r="F12" s="8" t="s">
         <v>61</v>
       </c>
-      <c r="AJ11" s="8" t="s">
+      <c r="AJ12" s="8" t="s">
         <v>69</v>
       </c>
-      <c r="AK11" s="8" t="s">
+      <c r="AK12" s="8" t="s">
         <v>72</v>
       </c>
-      <c r="AL11" s="9" t="s">
+      <c r="AL12" s="9" t="s">
         <v>85</v>
       </c>
-      <c r="AM11" s="8" t="s">
+      <c r="AM12" s="8" t="s">
         <v>70</v>
       </c>
-      <c r="AN11" s="8" t="s">
+      <c r="AN12" s="8" t="s">
         <v>94</v>
       </c>
-      <c r="AO11" s="8" t="s">
+      <c r="AO12" s="8" t="s">
         <v>73</v>
       </c>
-      <c r="AP11" s="8">
+      <c r="AP12" s="8">
         <v>27</v>
       </c>
-      <c r="AQ11" s="8" t="s">
+      <c r="AQ12" s="8" t="s">
         <v>79</v>
       </c>
-      <c r="AR11" s="8" t="s">
+      <c r="AR12" s="8" t="s">
         <v>80</v>
       </c>
-      <c r="AS11" s="8" t="s">
+      <c r="AS12" s="8" t="s">
         <v>81</v>
       </c>
-      <c r="AT11" s="8">
+      <c r="AT12" s="8">
         <v>2</v>
       </c>
-      <c r="AU11" s="8" t="s">
+      <c r="AU12" s="8" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="12" spans="1:47" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>88</v>
-      </c>
-      <c r="F12" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="G12" s="1"/>
-      <c r="H12" s="1"/>
     </row>
     <row r="13" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>89</v>
-      </c>
-      <c r="C13" t="s">
-        <v>9</v>
-      </c>
-      <c r="D13" t="s">
-        <v>7</v>
-      </c>
-      <c r="E13" t="s">
-        <v>8</v>
+        <v>88</v>
       </c>
       <c r="F13" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="G13" s="1" t="s">
+      <c r="G13" s="1"/>
+      <c r="H13" s="1"/>
+    </row>
+    <row r="14" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>89</v>
+      </c>
+      <c r="C14" t="s">
+        <v>9</v>
+      </c>
+      <c r="D14" t="s">
+        <v>7</v>
+      </c>
+      <c r="E14" t="s">
+        <v>8</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="G14" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="H13" s="1" t="s">
+      <c r="H14" s="1" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="14" spans="1:47" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
+    <row r="15" spans="1:47" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
         <v>96</v>
       </c>
-      <c r="C14" s="1"/>
-      <c r="W14" t="s">
+      <c r="C15" s="1"/>
+      <c r="W15" t="s">
         <v>22</v>
       </c>
-      <c r="X14" s="5" t="s">
+      <c r="X15" s="5" t="s">
         <v>95</v>
       </c>
-      <c r="Y14" s="3">
+      <c r="Y15" s="3">
         <v>2025</v>
       </c>
-      <c r="Z14" t="s">
+      <c r="Z15" t="s">
         <v>25</v>
       </c>
-      <c r="AB14" s="4">
+      <c r="AB15" s="4">
         <v>123</v>
       </c>
     </row>
@@ -1295,17 +1328,17 @@
     <hyperlink ref="B2" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
     <hyperlink ref="F2" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
     <hyperlink ref="F4" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
-    <hyperlink ref="F6" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
-    <hyperlink ref="C6" r:id="rId6" display="Mahendra@123.com" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
-    <hyperlink ref="C7" r:id="rId7" display="Mahendra@123.com" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
-    <hyperlink ref="F7" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
-    <hyperlink ref="I7" r:id="rId9" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
-    <hyperlink ref="F8" r:id="rId10" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
-    <hyperlink ref="F9" r:id="rId11" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
+    <hyperlink ref="F7" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
+    <hyperlink ref="C7" r:id="rId6" display="Mahendra@123.com" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
+    <hyperlink ref="C8" r:id="rId7" display="Mahendra@123.com" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
+    <hyperlink ref="F8" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
+    <hyperlink ref="I8" r:id="rId9" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
+    <hyperlink ref="F9" r:id="rId10" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
+    <hyperlink ref="F10" r:id="rId11" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
     <hyperlink ref="F3" r:id="rId12" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
-    <hyperlink ref="F12" r:id="rId13" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
-    <hyperlink ref="F13" r:id="rId14" xr:uid="{00000000-0004-0000-0000-00000E000000}"/>
-    <hyperlink ref="G13" r:id="rId15" xr:uid="{00000000-0004-0000-0000-00000F000000}"/>
+    <hyperlink ref="F13" r:id="rId13" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
+    <hyperlink ref="F14" r:id="rId14" xr:uid="{00000000-0004-0000-0000-00000E000000}"/>
+    <hyperlink ref="G14" r:id="rId15" xr:uid="{00000000-0004-0000-0000-00000F000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId16"/>

--- a/src/test/resources/TestData/Hydroflask/HydroTestData.xlsx
+++ b/src/test/resources/TestData/Hydroflask/HydroTestData.xlsx
@@ -3,14 +3,15 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23801"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D07284F-AFB3-4484-BD2B-9D4979261B9F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{1FE9FB86-E7AB-4A36-B67B-2903F499F652}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20580" windowHeight="8820" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1560" yWindow="1560" windowWidth="20610" windowHeight="9480" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DataSet" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="0"/>
+  <oleSize ref="A1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -323,12 +324,6 @@
     <t>mahe</t>
   </si>
   <si>
-    <t>oxobuyer@oxo.com</t>
-  </si>
-  <si>
-    <t>oxobuyer123</t>
-  </si>
-  <si>
     <t>MasterCard</t>
   </si>
   <si>
@@ -336,6 +331,12 @@
   </si>
   <si>
     <t>Ccmastercard</t>
+  </si>
+  <si>
+    <t>hftest123</t>
+  </si>
+  <si>
+    <t>buyer@hydroflask.com</t>
   </si>
 </sst>
 </file>
@@ -699,8 +700,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AU15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -999,14 +1000,14 @@
     </row>
     <row r="5" spans="1:47" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C5" s="1"/>
       <c r="W5" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="X5" s="10" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="Y5" s="3">
         <v>2025</v>
@@ -1207,11 +1208,11 @@
         <v>60</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="E10" s="7"/>
       <c r="F10" s="1" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="G10" s="1"/>
       <c r="H10" s="1"/>

--- a/src/test/resources/TestData/Hydroflask/HydroTestData.xlsx
+++ b/src/test/resources/TestData/Hydroflask/HydroTestData.xlsx
@@ -3,15 +3,14 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23801"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{1FE9FB86-E7AB-4A36-B67B-2903F499F652}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36522784-3A3D-4058-9089-AC3DACB65BB0}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1560" yWindow="1560" windowWidth="20610" windowHeight="9480" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20580" windowHeight="8820" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DataSet" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="0"/>
-  <oleSize ref="A1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -336,7 +335,7 @@
     <t>hftest123</t>
   </si>
   <si>
-    <t>buyer@hydroflask.com</t>
+    <t>paypal-buyer@hydroflask.com</t>
   </si>
 </sst>
 </file>
@@ -701,7 +700,7 @@
   <dimension ref="A1:AU15"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/src/test/resources/TestData/Hydroflask/HydroTestData.xlsx
+++ b/src/test/resources/TestData/Hydroflask/HydroTestData.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23801"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23929"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36522784-3A3D-4058-9089-AC3DACB65BB0}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C2B3C91-4CD4-45B4-A6FF-8BDBC29D05B0}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20580" windowHeight="8820" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="120">
   <si>
     <t>UserName</t>
   </si>
@@ -336,6 +336,57 @@
   </si>
   <si>
     <t>paypal-buyer@hydroflask.com</t>
+  </si>
+  <si>
+    <t>ExploreHeaderLinks</t>
+  </si>
+  <si>
+    <t>HeaderLinkPagetitle</t>
+  </si>
+  <si>
+    <t>Let’s Go! | Hydro Flask - One lifetime. Fill Often,Parks For All | Hydro Flask,We are Hydro Flask,World Surf League Partnership | Hydro Flask®,Contact Hydro Flask</t>
+  </si>
+  <si>
+    <t>GustUserOrderdetiles</t>
+  </si>
+  <si>
+    <t>oderId</t>
+  </si>
+  <si>
+    <t>Billinglastname</t>
+  </si>
+  <si>
+    <t>billingemail</t>
+  </si>
+  <si>
+    <t>HFSTG1000408040</t>
+  </si>
+  <si>
+    <t>hyndumaram@gmail.com</t>
+  </si>
+  <si>
+    <t>m</t>
+  </si>
+  <si>
+    <t>HFSTG1000408007</t>
+  </si>
+  <si>
+    <t>Maram</t>
+  </si>
+  <si>
+    <t>hyndumaram2714@gmail.com</t>
+  </si>
+  <si>
+    <t>registereduserOrderdetiles</t>
+  </si>
+  <si>
+    <t>socialLinks</t>
+  </si>
+  <si>
+    <t>Links</t>
+  </si>
+  <si>
+    <t>Twitter,Instagram,Facebook,Pinterest,Youtube</t>
   </si>
 </sst>
 </file>
@@ -697,15 +748,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AU15"/>
+  <dimension ref="A1:AZ19"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+    <sheetView tabSelected="1" topLeftCell="AW13" workbookViewId="0">
+      <selection activeCell="AZ19" sqref="AZ19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="25.85546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="19.7109375" customWidth="1"/>
     <col min="4" max="4" width="10.140625" bestFit="1" customWidth="1"/>
@@ -741,9 +792,14 @@
     <col min="45" max="45" width="20.42578125" bestFit="1" customWidth="1"/>
     <col min="46" max="46" width="23.140625" bestFit="1" customWidth="1"/>
     <col min="47" max="47" width="35.42578125" bestFit="1" customWidth="1"/>
+    <col min="48" max="48" width="146.85546875" bestFit="1" customWidth="1"/>
+    <col min="49" max="49" width="16.7109375" bestFit="1" customWidth="1"/>
+    <col min="50" max="50" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="51" max="51" width="28.28515625" bestFit="1" customWidth="1"/>
+    <col min="52" max="52" width="43.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>3</v>
       </c>
@@ -883,8 +939,23 @@
       <c r="AU1" s="2" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="2" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="AV1" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="AW1" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="AX1" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="AY1" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="AZ1" s="2" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="2" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -913,7 +984,7 @@
       <c r="N2" s="1"/>
       <c r="O2" s="1"/>
     </row>
-    <row r="3" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>87</v>
       </c>
@@ -955,7 +1026,7 @@
         <v>9898989899</v>
       </c>
     </row>
-    <row r="4" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>10</v>
       </c>
@@ -997,7 +1068,7 @@
         <v>9898989899</v>
       </c>
     </row>
-    <row r="5" spans="1:47" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:52" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>100</v>
       </c>
@@ -1018,7 +1089,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="6" spans="1:47" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:52" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>24</v>
       </c>
@@ -1039,7 +1110,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="7" spans="1:47" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:52" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>27</v>
       </c>
@@ -1092,7 +1163,7 @@
         <v>9898989899</v>
       </c>
     </row>
-    <row r="8" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>38</v>
       </c>
@@ -1144,7 +1215,7 @@
         <v>9898989899</v>
       </c>
     </row>
-    <row r="9" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>44</v>
       </c>
@@ -1202,7 +1273,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="10" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>60</v>
       </c>
@@ -1216,7 +1287,7 @@
       <c r="G10" s="1"/>
       <c r="H10" s="1"/>
     </row>
-    <row r="11" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>63</v>
       </c>
@@ -1224,7 +1295,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="12" spans="1:47" s="8" customFormat="1" ht="150" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:52" s="8" customFormat="1" ht="150" x14ac:dyDescent="0.25">
       <c r="A12" s="8" t="s">
         <v>74</v>
       </c>
@@ -1268,7 +1339,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="13" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>88</v>
       </c>
@@ -1278,7 +1349,7 @@
       <c r="G13" s="1"/>
       <c r="H13" s="1"/>
     </row>
-    <row r="14" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>89</v>
       </c>
@@ -1301,7 +1372,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="15" spans="1:47" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:52" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>96</v>
       </c>
@@ -1320,6 +1391,50 @@
       </c>
       <c r="AB15" s="4">
         <v>123</v>
+      </c>
+    </row>
+    <row r="16" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>103</v>
+      </c>
+      <c r="AV16" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="17" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>106</v>
+      </c>
+      <c r="AW17" t="s">
+        <v>110</v>
+      </c>
+      <c r="AX17" t="s">
+        <v>112</v>
+      </c>
+      <c r="AY17" s="1" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="18" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>116</v>
+      </c>
+      <c r="AW18" t="s">
+        <v>113</v>
+      </c>
+      <c r="AX18" t="s">
+        <v>114</v>
+      </c>
+      <c r="AY18" s="1" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="19" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>117</v>
+      </c>
+      <c r="AZ19" t="s">
+        <v>119</v>
       </c>
     </row>
   </sheetData>
@@ -1339,8 +1454,10 @@
     <hyperlink ref="F13" r:id="rId13" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
     <hyperlink ref="F14" r:id="rId14" xr:uid="{00000000-0004-0000-0000-00000E000000}"/>
     <hyperlink ref="G14" r:id="rId15" xr:uid="{00000000-0004-0000-0000-00000F000000}"/>
+    <hyperlink ref="AY17" r:id="rId16" xr:uid="{F5CD1D5B-EDF7-4830-BA0B-5F7528F53E53}"/>
+    <hyperlink ref="AY18" r:id="rId17" xr:uid="{C1610D07-FC6B-451B-969C-F66269F656AB}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId16"/>
+  <pageSetup orientation="portrait" r:id="rId18"/>
 </worksheet>
 </file>
--- a/src/test/resources/TestData/Hydroflask/HydroTestData.xlsx
+++ b/src/test/resources/TestData/Hydroflask/HydroTestData.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24131"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C2B3C91-4CD4-45B4-A6FF-8BDBC29D05B0}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3AF87A3E-7DA8-4718-966C-7B8C234DC0D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20580" windowHeight="8820" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DataSet" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="120">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="199" uniqueCount="144">
   <si>
     <t>UserName</t>
   </si>
@@ -387,6 +387,78 @@
   </si>
   <si>
     <t>Twitter,Instagram,Facebook,Pinterest,Youtube</t>
+  </si>
+  <si>
+    <t>Amexcard</t>
+  </si>
+  <si>
+    <t>AMEX</t>
+  </si>
+  <si>
+    <t>371449635398431</t>
+  </si>
+  <si>
+    <t>Mar</t>
+  </si>
+  <si>
+    <t>sai</t>
+  </si>
+  <si>
+    <t>teja</t>
+  </si>
+  <si>
+    <t>Plat no2dream Valley</t>
+  </si>
+  <si>
+    <t>Discovercard</t>
+  </si>
+  <si>
+    <t>Discover</t>
+  </si>
+  <si>
+    <t>6011016011016011</t>
+  </si>
+  <si>
+    <t>Dec</t>
+  </si>
+  <si>
+    <t>Billing_Address</t>
+  </si>
+  <si>
+    <t>2 dream valley</t>
+  </si>
+  <si>
+    <t>sylva</t>
+  </si>
+  <si>
+    <t>North Carolina</t>
+  </si>
+  <si>
+    <t>28779</t>
+  </si>
+  <si>
+    <t>PO_Box_Address</t>
+  </si>
+  <si>
+    <t>PO BOX 9998</t>
+  </si>
+  <si>
+    <t>Sunland park</t>
+  </si>
+  <si>
+    <t>New Mexico</t>
+  </si>
+  <si>
+    <t>OutSide_US</t>
+  </si>
+  <si>
+    <t>127 Dustin Street</t>
+  </si>
+  <si>
+    <t>Balgowine</t>
+  </si>
+  <si>
+    <t>04501</t>
   </si>
 </sst>
 </file>
@@ -447,7 +519,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
@@ -467,6 +539,7 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -748,10 +821,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AZ19"/>
+  <dimension ref="A1:AZ24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AW13" workbookViewId="0">
-      <selection activeCell="AZ19" sqref="AZ19"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="B29" sqref="B29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1405,13 +1478,34 @@
       <c r="A17" t="s">
         <v>106</v>
       </c>
-      <c r="AW17" t="s">
+      <c r="D17" t="s">
+        <v>124</v>
+      </c>
+      <c r="E17" t="s">
+        <v>125</v>
+      </c>
+      <c r="P17" t="s">
+        <v>126</v>
+      </c>
+      <c r="Q17" t="s">
+        <v>21</v>
+      </c>
+      <c r="T17" t="s">
+        <v>21</v>
+      </c>
+      <c r="U17">
+        <v>79912</v>
+      </c>
+      <c r="V17">
+        <v>9898989889</v>
+      </c>
+      <c r="AX17" t="s">
         <v>110</v>
       </c>
-      <c r="AX17" t="s">
+      <c r="AY17" t="s">
         <v>112</v>
       </c>
-      <c r="AY17" s="1" t="s">
+      <c r="AZ17" s="1" t="s">
         <v>111</v>
       </c>
     </row>
@@ -1435,6 +1529,125 @@
       </c>
       <c r="AZ19" t="s">
         <v>119</v>
+      </c>
+    </row>
+    <row r="20" spans="1:52" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>120</v>
+      </c>
+      <c r="C20" s="1"/>
+      <c r="W20" t="s">
+        <v>121</v>
+      </c>
+      <c r="X20" s="10" t="s">
+        <v>122</v>
+      </c>
+      <c r="Y20" s="3">
+        <v>2025</v>
+      </c>
+      <c r="Z20" t="s">
+        <v>123</v>
+      </c>
+      <c r="AB20" s="4">
+        <v>1234</v>
+      </c>
+    </row>
+    <row r="21" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>127</v>
+      </c>
+      <c r="F21" s="1"/>
+      <c r="G21" s="1"/>
+      <c r="H21" s="1"/>
+      <c r="W21" t="s">
+        <v>128</v>
+      </c>
+      <c r="X21" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="Y21">
+        <v>2025</v>
+      </c>
+      <c r="Z21" t="s">
+        <v>130</v>
+      </c>
+      <c r="AB21">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="22" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>131</v>
+      </c>
+      <c r="P22" t="s">
+        <v>132</v>
+      </c>
+      <c r="Q22" t="s">
+        <v>133</v>
+      </c>
+      <c r="T22" t="s">
+        <v>134</v>
+      </c>
+      <c r="U22" s="6" t="s">
+        <v>135</v>
+      </c>
+      <c r="V22" s="4">
+        <v>9898989899</v>
+      </c>
+    </row>
+    <row r="23" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>136</v>
+      </c>
+      <c r="D23" t="s">
+        <v>7</v>
+      </c>
+      <c r="E23" t="s">
+        <v>8</v>
+      </c>
+      <c r="F23" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="P23" t="s">
+        <v>137</v>
+      </c>
+      <c r="Q23" t="s">
+        <v>138</v>
+      </c>
+      <c r="T23" t="s">
+        <v>139</v>
+      </c>
+      <c r="U23">
+        <v>88063</v>
+      </c>
+      <c r="V23">
+        <v>9898989899</v>
+      </c>
+    </row>
+    <row r="24" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>140</v>
+      </c>
+      <c r="D24" t="s">
+        <v>7</v>
+      </c>
+      <c r="E24" t="s">
+        <v>8</v>
+      </c>
+      <c r="F24" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="P24" t="s">
+        <v>141</v>
+      </c>
+      <c r="Q24" t="s">
+        <v>142</v>
+      </c>
+      <c r="T24" t="s">
+        <v>139</v>
+      </c>
+      <c r="U24" s="11" t="s">
+        <v>143</v>
       </c>
     </row>
   </sheetData>
@@ -1442,22 +1655,24 @@
     <hyperlink ref="C2" r:id="rId1" display="Testautomation@3" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
     <hyperlink ref="B2" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
     <hyperlink ref="F2" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
-    <hyperlink ref="F4" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
-    <hyperlink ref="F7" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
-    <hyperlink ref="C7" r:id="rId6" display="Mahendra@123.com" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
-    <hyperlink ref="C8" r:id="rId7" display="Mahendra@123.com" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
-    <hyperlink ref="F8" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
-    <hyperlink ref="I8" r:id="rId9" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
-    <hyperlink ref="F9" r:id="rId10" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
-    <hyperlink ref="F10" r:id="rId11" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
-    <hyperlink ref="F3" r:id="rId12" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
-    <hyperlink ref="F13" r:id="rId13" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
-    <hyperlink ref="F14" r:id="rId14" xr:uid="{00000000-0004-0000-0000-00000E000000}"/>
-    <hyperlink ref="G14" r:id="rId15" xr:uid="{00000000-0004-0000-0000-00000F000000}"/>
-    <hyperlink ref="AY17" r:id="rId16" xr:uid="{F5CD1D5B-EDF7-4830-BA0B-5F7528F53E53}"/>
-    <hyperlink ref="AY18" r:id="rId17" xr:uid="{C1610D07-FC6B-451B-969C-F66269F656AB}"/>
+    <hyperlink ref="F7" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
+    <hyperlink ref="C7" r:id="rId5" display="Mahendra@123.com" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
+    <hyperlink ref="C8" r:id="rId6" display="Mahendra@123.com" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
+    <hyperlink ref="F8" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
+    <hyperlink ref="I8" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
+    <hyperlink ref="F9" r:id="rId9" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
+    <hyperlink ref="F10" r:id="rId10" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
+    <hyperlink ref="F3" r:id="rId11" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
+    <hyperlink ref="F13" r:id="rId12" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
+    <hyperlink ref="F14" r:id="rId13" xr:uid="{00000000-0004-0000-0000-00000E000000}"/>
+    <hyperlink ref="G14" r:id="rId14" xr:uid="{00000000-0004-0000-0000-00000F000000}"/>
+    <hyperlink ref="AY18" r:id="rId15" xr:uid="{C1610D07-FC6B-451B-969C-F66269F656AB}"/>
+    <hyperlink ref="AZ17" r:id="rId16" xr:uid="{A6298AEA-CEB1-469B-AD6C-52BDA6A94A3F}"/>
+    <hyperlink ref="F4" r:id="rId17" xr:uid="{1DD168D8-5542-47DF-95F5-3643C2CC27B9}"/>
+    <hyperlink ref="F23" r:id="rId18" xr:uid="{DEBD58C8-85A9-4095-B428-D61BF34C038E}"/>
+    <hyperlink ref="F24" r:id="rId19" xr:uid="{B978427B-7673-4C86-8528-0368002129F5}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId18"/>
+  <pageSetup orientation="portrait" r:id="rId20"/>
 </worksheet>
 </file>
--- a/src/test/resources/TestData/Hydroflask/HydroTestData.xlsx
+++ b/src/test/resources/TestData/Hydroflask/HydroTestData.xlsx
@@ -3,14 +3,15 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24131"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3AF87A3E-7DA8-4718-966C-7B8C234DC0D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{DEB441D8-9235-4AB8-BAA7-FACF9AF662E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1950" yWindow="1950" windowWidth="20790" windowHeight="11820" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DataSet" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="0"/>
+  <oleSize ref="A1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -202,9 +203,6 @@
     <t>06492</t>
   </si>
   <si>
-    <t>PaypalDetails</t>
-  </si>
-  <si>
     <t>Skchinna28@gmail.com</t>
   </si>
   <si>
@@ -459,6 +457,9 @@
   </si>
   <si>
     <t>04501</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PaypalDetails </t>
   </si>
 </sst>
 </file>
@@ -821,10 +822,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AZ24"/>
+  <dimension ref="A1:AZ25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="B29" sqref="B29"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="A25" sqref="A25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -889,13 +890,13 @@
         <v>6</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="I1" s="2" t="s">
         <v>37</v>
@@ -974,58 +975,58 @@
         <v>54</v>
       </c>
       <c r="AI1" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="AJ1" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="AK1" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="AL1" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="AM1" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="AL1" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="AM1" s="2" t="s">
+      <c r="AN1" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="AN1" s="2" t="s">
+      <c r="AO1" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="AO1" s="2" t="s">
-        <v>68</v>
-      </c>
       <c r="AP1" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="AQ1" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="AQ1" s="2" t="s">
+      <c r="AR1" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="AR1" s="2" t="s">
+      <c r="AS1" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="AS1" s="2" t="s">
-        <v>78</v>
-      </c>
       <c r="AT1" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="AU1" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AV1" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="AW1" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="AX1" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="AX1" s="2" t="s">
+      <c r="AY1" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="AY1" s="2" t="s">
-        <v>109</v>
-      </c>
       <c r="AZ1" s="2" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="2" spans="1:52" x14ac:dyDescent="0.25">
@@ -1039,7 +1040,7 @@
         <v>9</v>
       </c>
       <c r="D2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E2" t="s">
         <v>8</v>
@@ -1059,7 +1060,7 @@
     </row>
     <row r="3" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C3" s="1"/>
       <c r="D3" t="s">
@@ -1143,14 +1144,14 @@
     </row>
     <row r="5" spans="1:52" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C5" s="1"/>
       <c r="W5" t="s">
+        <v>97</v>
+      </c>
+      <c r="X5" s="10" t="s">
         <v>98</v>
-      </c>
-      <c r="X5" s="10" t="s">
-        <v>99</v>
       </c>
       <c r="Y5" s="3">
         <v>2025</v>
@@ -1348,73 +1349,73 @@
     </row>
     <row r="10" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>60</v>
+        <v>143</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E10" s="7"/>
       <c r="F10" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="G10" s="1"/>
       <c r="H10" s="1"/>
     </row>
     <row r="11" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
+        <v>62</v>
+      </c>
+      <c r="AI11" t="s">
         <v>63</v>
-      </c>
-      <c r="AI11" t="s">
-        <v>64</v>
       </c>
     </row>
     <row r="12" spans="1:52" s="8" customFormat="1" ht="150" x14ac:dyDescent="0.25">
       <c r="A12" s="8" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="F12" s="8" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="AJ12" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="AK12" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="AL12" s="9" t="s">
+        <v>84</v>
+      </c>
+      <c r="AM12" s="8" t="s">
         <v>69</v>
       </c>
-      <c r="AK12" s="8" t="s">
+      <c r="AN12" s="8" t="s">
+        <v>93</v>
+      </c>
+      <c r="AO12" s="8" t="s">
         <v>72</v>
-      </c>
-      <c r="AL12" s="9" t="s">
-        <v>85</v>
-      </c>
-      <c r="AM12" s="8" t="s">
-        <v>70</v>
-      </c>
-      <c r="AN12" s="8" t="s">
-        <v>94</v>
-      </c>
-      <c r="AO12" s="8" t="s">
-        <v>73</v>
       </c>
       <c r="AP12" s="8">
         <v>27</v>
       </c>
       <c r="AQ12" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="AR12" s="8" t="s">
         <v>79</v>
       </c>
-      <c r="AR12" s="8" t="s">
+      <c r="AS12" s="8" t="s">
         <v>80</v>
-      </c>
-      <c r="AS12" s="8" t="s">
-        <v>81</v>
       </c>
       <c r="AT12" s="8">
         <v>2</v>
       </c>
       <c r="AU12" s="8" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="13" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F13" s="1" t="s">
         <v>2</v>
@@ -1424,7 +1425,7 @@
     </row>
     <row r="14" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C14" t="s">
         <v>9</v>
@@ -1439,22 +1440,22 @@
         <v>2</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="15" spans="1:52" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C15" s="1"/>
       <c r="W15" t="s">
         <v>22</v>
       </c>
       <c r="X15" s="5" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="Y15" s="3">
         <v>2025</v>
@@ -1468,24 +1469,24 @@
     </row>
     <row r="16" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="AV16" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="17" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D17" t="s">
+        <v>123</v>
+      </c>
+      <c r="E17" t="s">
         <v>124</v>
       </c>
-      <c r="E17" t="s">
+      <c r="P17" t="s">
         <v>125</v>
-      </c>
-      <c r="P17" t="s">
-        <v>126</v>
       </c>
       <c r="Q17" t="s">
         <v>21</v>
@@ -1500,53 +1501,53 @@
         <v>9898989889</v>
       </c>
       <c r="AX17" t="s">
+        <v>109</v>
+      </c>
+      <c r="AY17" t="s">
+        <v>111</v>
+      </c>
+      <c r="AZ17" s="1" t="s">
         <v>110</v>
-      </c>
-      <c r="AY17" t="s">
-        <v>112</v>
-      </c>
-      <c r="AZ17" s="1" t="s">
-        <v>111</v>
       </c>
     </row>
     <row r="18" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="AW18" t="s">
+        <v>112</v>
+      </c>
+      <c r="AX18" t="s">
         <v>113</v>
       </c>
-      <c r="AX18" t="s">
+      <c r="AY18" s="1" t="s">
         <v>114</v>
-      </c>
-      <c r="AY18" s="1" t="s">
-        <v>115</v>
       </c>
     </row>
     <row r="19" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="AZ19" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="20" spans="1:52" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C20" s="1"/>
       <c r="W20" t="s">
+        <v>120</v>
+      </c>
+      <c r="X20" s="10" t="s">
         <v>121</v>
-      </c>
-      <c r="X20" s="10" t="s">
-        <v>122</v>
       </c>
       <c r="Y20" s="3">
         <v>2025</v>
       </c>
       <c r="Z20" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="AB20" s="4">
         <v>1234</v>
@@ -1554,22 +1555,22 @@
     </row>
     <row r="21" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="F21" s="1"/>
       <c r="G21" s="1"/>
       <c r="H21" s="1"/>
       <c r="W21" t="s">
+        <v>127</v>
+      </c>
+      <c r="X21" s="5" t="s">
         <v>128</v>
-      </c>
-      <c r="X21" s="5" t="s">
-        <v>129</v>
       </c>
       <c r="Y21">
         <v>2025</v>
       </c>
       <c r="Z21" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="AB21">
         <v>342</v>
@@ -1577,19 +1578,19 @@
     </row>
     <row r="22" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
+        <v>130</v>
+      </c>
+      <c r="P22" t="s">
         <v>131</v>
       </c>
-      <c r="P22" t="s">
+      <c r="Q22" t="s">
         <v>132</v>
       </c>
-      <c r="Q22" t="s">
+      <c r="T22" t="s">
         <v>133</v>
       </c>
-      <c r="T22" t="s">
+      <c r="U22" s="6" t="s">
         <v>134</v>
-      </c>
-      <c r="U22" s="6" t="s">
-        <v>135</v>
       </c>
       <c r="V22" s="4">
         <v>9898989899</v>
@@ -1597,7 +1598,7 @@
     </row>
     <row r="23" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D23" t="s">
         <v>7</v>
@@ -1609,13 +1610,13 @@
         <v>2</v>
       </c>
       <c r="P23" t="s">
+        <v>136</v>
+      </c>
+      <c r="Q23" t="s">
         <v>137</v>
       </c>
-      <c r="Q23" t="s">
+      <c r="T23" t="s">
         <v>138</v>
-      </c>
-      <c r="T23" t="s">
-        <v>139</v>
       </c>
       <c r="U23">
         <v>88063</v>
@@ -1626,7 +1627,7 @@
     </row>
     <row r="24" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D24" t="s">
         <v>7</v>
@@ -1638,18 +1639,19 @@
         <v>2</v>
       </c>
       <c r="P24" t="s">
+        <v>140</v>
+      </c>
+      <c r="Q24" t="s">
         <v>141</v>
       </c>
-      <c r="Q24" t="s">
+      <c r="T24" t="s">
+        <v>138</v>
+      </c>
+      <c r="U24" s="11" t="s">
         <v>142</v>
       </c>
-      <c r="T24" t="s">
-        <v>139</v>
-      </c>
-      <c r="U24" s="11" t="s">
-        <v>143</v>
-      </c>
-    </row>
+    </row>
+    <row r="25" spans="1:52" x14ac:dyDescent="0.25"/>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="C2" r:id="rId1" display="Testautomation@3" xr:uid="{00000000-0004-0000-0000-000000000000}"/>

--- a/src/test/resources/TestData/Hydroflask/HydroTestData.xlsx
+++ b/src/test/resources/TestData/Hydroflask/HydroTestData.xlsx
@@ -1,17 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24131"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{DEB441D8-9235-4AB8-BAA7-FACF9AF662E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1950" yWindow="1950" windowWidth="20790" windowHeight="11820" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1950" yWindow="1950" windowWidth="20790" windowHeight="11820"/>
   </bookViews>
   <sheets>
     <sheet name="DataSet" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="0"/>
-  <oleSize ref="A1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -21,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="199" uniqueCount="144">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202" uniqueCount="147">
   <si>
     <t>UserName</t>
   </si>
@@ -461,11 +459,20 @@
   <si>
     <t xml:space="preserve">PaypalDetails </t>
   </si>
+  <si>
+    <t>AdminLogins</t>
+  </si>
+  <si>
+    <t>manojk</t>
+  </si>
+  <si>
+    <t>b{?e\Gm=c8qDH8p@</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0;[Red]0"/>
   </numFmts>
@@ -821,17 +828,17 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AZ25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="A25" sqref="A25"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="25.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="26.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="29.42578125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="19.7109375" customWidth="1"/>
     <col min="4" max="4" width="10.140625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="9.7109375" bestFit="1" customWidth="1"/>
@@ -1651,28 +1658,38 @@
         <v>142</v>
       </c>
     </row>
-    <row r="25" spans="1:52" x14ac:dyDescent="0.25"/>
+    <row r="25" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>144</v>
+      </c>
+      <c r="B25" t="s">
+        <v>145</v>
+      </c>
+      <c r="C25" t="s">
+        <v>146</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C2" r:id="rId1" display="Testautomation@3" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
-    <hyperlink ref="B2" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
-    <hyperlink ref="F2" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
-    <hyperlink ref="F7" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
-    <hyperlink ref="C7" r:id="rId5" display="Mahendra@123.com" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
-    <hyperlink ref="C8" r:id="rId6" display="Mahendra@123.com" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
-    <hyperlink ref="F8" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
-    <hyperlink ref="I8" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
-    <hyperlink ref="F9" r:id="rId9" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
-    <hyperlink ref="F10" r:id="rId10" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
-    <hyperlink ref="F3" r:id="rId11" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
-    <hyperlink ref="F13" r:id="rId12" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
-    <hyperlink ref="F14" r:id="rId13" xr:uid="{00000000-0004-0000-0000-00000E000000}"/>
-    <hyperlink ref="G14" r:id="rId14" xr:uid="{00000000-0004-0000-0000-00000F000000}"/>
-    <hyperlink ref="AY18" r:id="rId15" xr:uid="{C1610D07-FC6B-451B-969C-F66269F656AB}"/>
-    <hyperlink ref="AZ17" r:id="rId16" xr:uid="{A6298AEA-CEB1-469B-AD6C-52BDA6A94A3F}"/>
-    <hyperlink ref="F4" r:id="rId17" xr:uid="{1DD168D8-5542-47DF-95F5-3643C2CC27B9}"/>
-    <hyperlink ref="F23" r:id="rId18" xr:uid="{DEBD58C8-85A9-4095-B428-D61BF34C038E}"/>
-    <hyperlink ref="F24" r:id="rId19" xr:uid="{B978427B-7673-4C86-8528-0368002129F5}"/>
+    <hyperlink ref="F7" r:id="rId1"/>
+    <hyperlink ref="C7" r:id="rId2" display="Mahendra@123.com"/>
+    <hyperlink ref="C8" r:id="rId3" display="Mahendra@123.com"/>
+    <hyperlink ref="F8" r:id="rId4"/>
+    <hyperlink ref="I8" r:id="rId5"/>
+    <hyperlink ref="F9" r:id="rId6"/>
+    <hyperlink ref="F10" r:id="rId7"/>
+    <hyperlink ref="F3" r:id="rId8"/>
+    <hyperlink ref="F13" r:id="rId9"/>
+    <hyperlink ref="F14" r:id="rId10"/>
+    <hyperlink ref="G14" r:id="rId11"/>
+    <hyperlink ref="AY18" r:id="rId12"/>
+    <hyperlink ref="AZ17" r:id="rId13"/>
+    <hyperlink ref="F4" r:id="rId14"/>
+    <hyperlink ref="F23" r:id="rId15"/>
+    <hyperlink ref="F24" r:id="rId16"/>
+    <hyperlink ref="F2" r:id="rId17"/>
+    <hyperlink ref="C2" r:id="rId18" display="Mahendra@123.com"/>
+    <hyperlink ref="B2" r:id="rId19"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId20"/>

--- a/src/test/resources/TestData/Hydroflask/HydroTestData.xlsx
+++ b/src/test/resources/TestData/Hydroflask/HydroTestData.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24228"/>
   <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CFC0A4B6-210F-4C60-8771-62ADDCE0317E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1950" yWindow="1950" windowWidth="20790" windowHeight="11820"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DataSet" sheetId="1" r:id="rId1"/>
@@ -19,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202" uniqueCount="147">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="150">
   <si>
     <t>UserName</t>
   </si>
@@ -457,9 +458,6 @@
     <t>04501</t>
   </si>
   <si>
-    <t xml:space="preserve">PaypalDetails </t>
-  </si>
-  <si>
     <t>AdminLogins</t>
   </si>
   <si>
@@ -467,12 +465,24 @@
   </si>
   <si>
     <t>b{?e\Gm=c8qDH8p@</t>
+  </si>
+  <si>
+    <t>PaypalDetails</t>
+  </si>
+  <si>
+    <t>Employlogins</t>
+  </si>
+  <si>
+    <t>qahydroflask@gmail.com</t>
+  </si>
+  <si>
+    <t>19Hyndu@98</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0;[Red]0"/>
   </numFmts>
@@ -828,11 +838,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AZ25"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:AZ26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="A26" sqref="A26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1356,7 +1366,7 @@
     </row>
     <row r="10" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>100</v>
@@ -1660,38 +1670,53 @@
     </row>
     <row r="25" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
+        <v>143</v>
+      </c>
+      <c r="B25" t="s">
         <v>144</v>
       </c>
-      <c r="B25" t="s">
+      <c r="C25" t="s">
         <v>145</v>
       </c>
-      <c r="C25" t="s">
-        <v>146</v>
+    </row>
+    <row r="26" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>147</v>
+      </c>
+      <c r="B26" t="s">
+        <v>148</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="F26" t="s">
+        <v>148</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="F7" r:id="rId1"/>
-    <hyperlink ref="C7" r:id="rId2" display="Mahendra@123.com"/>
-    <hyperlink ref="C8" r:id="rId3" display="Mahendra@123.com"/>
-    <hyperlink ref="F8" r:id="rId4"/>
-    <hyperlink ref="I8" r:id="rId5"/>
-    <hyperlink ref="F9" r:id="rId6"/>
-    <hyperlink ref="F10" r:id="rId7"/>
-    <hyperlink ref="F3" r:id="rId8"/>
-    <hyperlink ref="F13" r:id="rId9"/>
-    <hyperlink ref="F14" r:id="rId10"/>
-    <hyperlink ref="G14" r:id="rId11"/>
-    <hyperlink ref="AY18" r:id="rId12"/>
-    <hyperlink ref="AZ17" r:id="rId13"/>
-    <hyperlink ref="F4" r:id="rId14"/>
-    <hyperlink ref="F23" r:id="rId15"/>
-    <hyperlink ref="F24" r:id="rId16"/>
-    <hyperlink ref="F2" r:id="rId17"/>
-    <hyperlink ref="C2" r:id="rId18" display="Mahendra@123.com"/>
-    <hyperlink ref="B2" r:id="rId19"/>
+    <hyperlink ref="F7" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="C7" r:id="rId2" display="Mahendra@123.com" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="C8" r:id="rId3" display="Mahendra@123.com" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="F8" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
+    <hyperlink ref="I8" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
+    <hyperlink ref="F9" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
+    <hyperlink ref="F10" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
+    <hyperlink ref="F3" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
+    <hyperlink ref="F13" r:id="rId9" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
+    <hyperlink ref="F14" r:id="rId10" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
+    <hyperlink ref="G14" r:id="rId11" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
+    <hyperlink ref="AY18" r:id="rId12" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
+    <hyperlink ref="AZ17" r:id="rId13" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
+    <hyperlink ref="F4" r:id="rId14" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
+    <hyperlink ref="F23" r:id="rId15" xr:uid="{00000000-0004-0000-0000-00000E000000}"/>
+    <hyperlink ref="F24" r:id="rId16" xr:uid="{00000000-0004-0000-0000-00000F000000}"/>
+    <hyperlink ref="F2" r:id="rId17" xr:uid="{00000000-0004-0000-0000-000010000000}"/>
+    <hyperlink ref="C2" r:id="rId18" display="Mahendra@123.com" xr:uid="{00000000-0004-0000-0000-000011000000}"/>
+    <hyperlink ref="B2" r:id="rId19" xr:uid="{00000000-0004-0000-0000-000012000000}"/>
+    <hyperlink ref="C26" r:id="rId20" xr:uid="{C4852D1E-04CA-4606-A661-182A211D0DA4}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId20"/>
+  <pageSetup orientation="portrait" r:id="rId21"/>
 </worksheet>
 </file>
--- a/src/test/resources/TestData/Hydroflask/HydroTestData.xlsx
+++ b/src/test/resources/TestData/Hydroflask/HydroTestData.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24228"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24326"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CFC0A4B6-210F-4C60-8771-62ADDCE0317E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27172E83-564A-4789-9509-BFB4107E7671}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="9360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DataSet" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="150">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="297" uniqueCount="212">
   <si>
     <t>UserName</t>
   </si>
@@ -356,21 +356,9 @@
     <t>billingemail</t>
   </si>
   <si>
-    <t>HFSTG1000408040</t>
-  </si>
-  <si>
     <t>hyndumaram@gmail.com</t>
   </si>
   <si>
-    <t>m</t>
-  </si>
-  <si>
-    <t>HFSTG1000408007</t>
-  </si>
-  <si>
-    <t>Maram</t>
-  </si>
-  <si>
     <t>hyndumaram2714@gmail.com</t>
   </si>
   <si>
@@ -467,16 +455,214 @@
     <t>b{?e\Gm=c8qDH8p@</t>
   </si>
   <si>
+    <t>account_Enquiry</t>
+  </si>
+  <si>
+    <t>LotusWave</t>
+  </si>
+  <si>
+    <t xml:space="preserve">United States </t>
+  </si>
+  <si>
+    <t>Events</t>
+  </si>
+  <si>
+    <t>Brick &amp; Mortar Retailer</t>
+  </si>
+  <si>
+    <t>test</t>
+  </si>
+  <si>
+    <t>Hydroflask</t>
+  </si>
+  <si>
+    <t>under 1,000 sq. ft.</t>
+  </si>
+  <si>
+    <t>tester</t>
+  </si>
+  <si>
+    <t>Hydro Flask</t>
+  </si>
+  <si>
+    <t>bottles</t>
+  </si>
+  <si>
+    <t>Good products</t>
+  </si>
+  <si>
+    <t>Mahendra</t>
+  </si>
+  <si>
+    <t>Channel</t>
+  </si>
+  <si>
+    <t>business</t>
+  </si>
+  <si>
+    <t>webAddress</t>
+  </si>
+  <si>
+    <t>member</t>
+  </si>
+  <si>
+    <t>Order</t>
+  </si>
+  <si>
+    <t>yourwebsite</t>
+  </si>
+  <si>
+    <t>yourwebsites</t>
+  </si>
+  <si>
+    <t>stores</t>
+  </si>
+  <si>
+    <t>numberofstores</t>
+  </si>
+  <si>
+    <t>Storesize</t>
+  </si>
+  <si>
+    <t>Revenu</t>
+  </si>
+  <si>
+    <t>estimated number</t>
+  </si>
+  <si>
+    <t>YearBusiness</t>
+  </si>
+  <si>
+    <t>StoreAddress</t>
+  </si>
+  <si>
+    <t>unit</t>
+  </si>
+  <si>
+    <t>Zipcode</t>
+  </si>
+  <si>
+    <t>interest</t>
+  </si>
+  <si>
+    <t>carried</t>
+  </si>
+  <si>
+    <t>aboutUs</t>
+  </si>
+  <si>
+    <t>Title</t>
+  </si>
+  <si>
+    <t>inquirysubmittedby</t>
+  </si>
+  <si>
     <t>PaypalDetails</t>
   </si>
   <si>
+    <t>mahendr.se@gmail.com</t>
+  </si>
+  <si>
+    <t>mahendr.selm@gmail.com</t>
+  </si>
+  <si>
+    <t>mahendr.senium@gmail.com</t>
+  </si>
+  <si>
+    <t>mahendr.seium@gmail.com</t>
+  </si>
+  <si>
+    <t>AVS_Address</t>
+  </si>
+  <si>
+    <t>Sylva</t>
+  </si>
+  <si>
+    <t>InlineOrder</t>
+  </si>
+  <si>
+    <t>No_TaxAddress</t>
+  </si>
+  <si>
+    <t>No_TaxAddress_2</t>
+  </si>
+  <si>
+    <t>productname</t>
+  </si>
+  <si>
+    <t>volume</t>
+  </si>
+  <si>
+    <t>Black</t>
+  </si>
+  <si>
+    <t>Manoj</t>
+  </si>
+  <si>
+    <t>715 christiana mall</t>
+  </si>
+  <si>
+    <t>wilmington</t>
+  </si>
+  <si>
+    <t>10271 Arborvitae Dr</t>
+  </si>
+  <si>
+    <t>Anchorage</t>
+  </si>
+  <si>
+    <t>Delaware</t>
+  </si>
+  <si>
+    <t>Alaska</t>
+  </si>
+  <si>
+    <t>20 oz Wide Mouth - black,21 oz Standard Mouth - black,21 oz Standard Mouth w/ Sport Cap - black,Hydro Flask 24 oz Standard Mouth - Black,Hydro Flask 24 oz Standard Mouth - Black,Hydro Flask 32 oz Wide Mouth - Black,32 oz Wide Mouth w/ Straw Lid - black,40 oz Wide Mouth w/ Straw Lid - black,Hydro Flask 40 oz Wide Mouth - Black,Hydro Flask 64 oz Wide Mouth - Black,18 oz Standard Mouth - black,Wide Mouth Straw Lid - Black,Standard Mouth Sport Cap,Standard Mouth Flex Cap - Black,Wide Mouth Flex Cap - Black,Hydro Flip Lid - Black</t>
+  </si>
+  <si>
+    <t>18 oz Standard Mouth - black,</t>
+  </si>
+  <si>
+    <t>product</t>
+  </si>
+  <si>
+    <t>colorname</t>
+  </si>
+  <si>
     <t>Employlogins</t>
   </si>
   <si>
     <t>qahydroflask@gmail.com</t>
   </si>
   <si>
-    <t>19Hyndu@98</t>
+    <t>InvalidAddress</t>
+  </si>
+  <si>
+    <t>123Test</t>
+  </si>
+  <si>
+    <t>Dream Street</t>
+  </si>
+  <si>
+    <t>Walling</t>
+  </si>
+  <si>
+    <t>USTG1001603054</t>
+  </si>
+  <si>
+    <t>b</t>
+  </si>
+  <si>
+    <t>akhilabogi77@gmail.com</t>
+  </si>
+  <si>
+    <t>USTG1001603088</t>
+  </si>
+  <si>
+    <t>Vamsi</t>
+  </si>
+  <si>
+    <t>wallingford</t>
   </si>
 </sst>
 </file>
@@ -537,7 +723,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
@@ -558,6 +744,7 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -839,10 +1026,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AZ26"/>
+  <dimension ref="A1:BW36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="A26" sqref="A26"/>
+    <sheetView tabSelected="1" topLeftCell="M21" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="T28" sqref="T28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -890,7 +1077,7 @@
     <col min="52" max="52" width="43.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:75" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>3</v>
       </c>
@@ -1043,10 +1230,79 @@
         <v>108</v>
       </c>
       <c r="AZ1" s="2" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="2" spans="1:52" x14ac:dyDescent="0.25">
+        <v>113</v>
+      </c>
+      <c r="BA1" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="BB1" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="BC1" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="BD1" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="BE1" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="BF1" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="BG1" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="BH1" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="BI1" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="BJ1" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="BK1" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="BL1" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="BM1" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="BN1" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="BO1" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="BP1" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="BQ1" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="BR1" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="BS1" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="BT1" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="BU1" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="BV1" t="s">
+        <v>198</v>
+      </c>
+      <c r="BW1" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="2" spans="1:75" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -1075,7 +1331,7 @@
       <c r="N2" s="1"/>
       <c r="O2" s="1"/>
     </row>
-    <row r="3" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:75" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>86</v>
       </c>
@@ -1087,7 +1343,7 @@
         <v>8</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>2</v>
+        <v>178</v>
       </c>
       <c r="G3" s="1"/>
       <c r="H3" s="1"/>
@@ -1117,7 +1373,7 @@
         <v>9898989899</v>
       </c>
     </row>
-    <row r="4" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:75" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>10</v>
       </c>
@@ -1129,7 +1385,7 @@
         <v>8</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>2</v>
+        <v>177</v>
       </c>
       <c r="G4" s="1"/>
       <c r="H4" s="1"/>
@@ -1159,7 +1415,7 @@
         <v>9898989899</v>
       </c>
     </row>
-    <row r="5" spans="1:52" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:75" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>99</v>
       </c>
@@ -1180,7 +1436,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="6" spans="1:52" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:75" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>24</v>
       </c>
@@ -1201,7 +1457,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="7" spans="1:52" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:75" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>27</v>
       </c>
@@ -1254,7 +1510,7 @@
         <v>9898989899</v>
       </c>
     </row>
-    <row r="8" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:75" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>38</v>
       </c>
@@ -1306,7 +1562,7 @@
         <v>9898989899</v>
       </c>
     </row>
-    <row r="9" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:75" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>44</v>
       </c>
@@ -1364,256 +1620,274 @@
         <v>55</v>
       </c>
     </row>
-    <row r="10" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:75" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>146</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="E10" s="7"/>
-      <c r="F10" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="G10" s="1"/>
-      <c r="H10" s="1"/>
-    </row>
-    <row r="11" spans="1:52" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
         <v>62</v>
       </c>
-      <c r="AI11" t="s">
+      <c r="AI10" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="12" spans="1:52" s="8" customFormat="1" ht="150" x14ac:dyDescent="0.25">
-      <c r="A12" s="8" t="s">
+    <row r="11" spans="1:75" s="8" customFormat="1" ht="150" x14ac:dyDescent="0.25">
+      <c r="A11" s="8" t="s">
         <v>73</v>
       </c>
-      <c r="F12" s="8" t="s">
+      <c r="F11" s="8" t="s">
         <v>60</v>
       </c>
-      <c r="AJ12" s="8" t="s">
+      <c r="AJ11" s="8" t="s">
         <v>68</v>
       </c>
-      <c r="AK12" s="8" t="s">
+      <c r="AK11" s="8" t="s">
         <v>71</v>
       </c>
-      <c r="AL12" s="9" t="s">
+      <c r="AL11" s="9" t="s">
         <v>84</v>
       </c>
-      <c r="AM12" s="8" t="s">
+      <c r="AM11" s="8" t="s">
         <v>69</v>
       </c>
-      <c r="AN12" s="8" t="s">
+      <c r="AN11" s="8" t="s">
         <v>93</v>
       </c>
-      <c r="AO12" s="8" t="s">
+      <c r="AO11" s="8" t="s">
         <v>72</v>
       </c>
-      <c r="AP12" s="8">
+      <c r="AP11" s="8">
         <v>27</v>
       </c>
-      <c r="AQ12" s="8" t="s">
+      <c r="AQ11" s="8" t="s">
         <v>78</v>
       </c>
-      <c r="AR12" s="8" t="s">
+      <c r="AR11" s="8" t="s">
         <v>79</v>
       </c>
-      <c r="AS12" s="8" t="s">
+      <c r="AS11" s="8" t="s">
         <v>80</v>
       </c>
-      <c r="AT12" s="8">
+      <c r="AT11" s="8">
         <v>2</v>
       </c>
-      <c r="AU12" s="8" t="s">
+      <c r="AU11" s="8" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="13" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:75" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>87</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="G12" s="1"/>
+      <c r="H12" s="1"/>
+    </row>
+    <row r="13" spans="1:75" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>87</v>
+        <v>88</v>
+      </c>
+      <c r="C13" t="s">
+        <v>9</v>
+      </c>
+      <c r="D13" t="s">
+        <v>7</v>
+      </c>
+      <c r="E13" t="s">
+        <v>8</v>
       </c>
       <c r="F13" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="G13" s="1"/>
-      <c r="H13" s="1"/>
-    </row>
-    <row r="14" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="G13" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="H13" s="1" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="14" spans="1:75" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>88</v>
-      </c>
-      <c r="C14" t="s">
-        <v>9</v>
-      </c>
-      <c r="D14" t="s">
-        <v>7</v>
-      </c>
-      <c r="E14" t="s">
-        <v>8</v>
-      </c>
-      <c r="F14" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="G14" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="H14" s="1" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="15" spans="1:52" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+        <v>95</v>
+      </c>
+      <c r="C14" s="1"/>
+      <c r="W14" t="s">
+        <v>22</v>
+      </c>
+      <c r="X14" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="Y14" s="3">
+        <v>2025</v>
+      </c>
+      <c r="Z14" t="s">
+        <v>25</v>
+      </c>
+      <c r="AB14" s="4">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="15" spans="1:75" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>95</v>
-      </c>
-      <c r="C15" s="1"/>
-      <c r="W15" t="s">
-        <v>22</v>
-      </c>
-      <c r="X15" s="5" t="s">
-        <v>94</v>
-      </c>
-      <c r="Y15" s="3">
+        <v>102</v>
+      </c>
+      <c r="AV15" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="16" spans="1:75" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>105</v>
+      </c>
+      <c r="D16" t="s">
+        <v>119</v>
+      </c>
+      <c r="E16" t="s">
+        <v>120</v>
+      </c>
+      <c r="P16" t="s">
+        <v>121</v>
+      </c>
+      <c r="Q16" t="s">
+        <v>21</v>
+      </c>
+      <c r="T16" t="s">
+        <v>21</v>
+      </c>
+      <c r="U16">
+        <v>79912</v>
+      </c>
+      <c r="V16">
+        <v>9898989889</v>
+      </c>
+      <c r="AW16" t="s">
+        <v>206</v>
+      </c>
+      <c r="AX16" t="s">
+        <v>207</v>
+      </c>
+      <c r="AY16" t="s">
+        <v>208</v>
+      </c>
+      <c r="AZ16" s="1" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="17" spans="1:74" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>111</v>
+      </c>
+      <c r="AW17" t="s">
+        <v>209</v>
+      </c>
+      <c r="AX17" t="s">
+        <v>210</v>
+      </c>
+      <c r="AY17" s="1" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="18" spans="1:74" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>112</v>
+      </c>
+      <c r="AZ18" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="19" spans="1:74" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>115</v>
+      </c>
+      <c r="C19" s="1"/>
+      <c r="W19" t="s">
+        <v>116</v>
+      </c>
+      <c r="X19" s="10" t="s">
+        <v>117</v>
+      </c>
+      <c r="Y19" s="3">
         <v>2025</v>
       </c>
-      <c r="Z15" t="s">
-        <v>25</v>
-      </c>
-      <c r="AB15" s="4">
+      <c r="Z19" t="s">
+        <v>118</v>
+      </c>
+      <c r="AB19" s="4">
+        <v>1234</v>
+      </c>
+    </row>
+    <row r="20" spans="1:74" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>122</v>
+      </c>
+      <c r="F20" s="1"/>
+      <c r="G20" s="1"/>
+      <c r="H20" s="1"/>
+      <c r="W20" t="s">
         <v>123</v>
       </c>
-    </row>
-    <row r="16" spans="1:52" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>102</v>
-      </c>
-      <c r="AV16" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="17" spans="1:52" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>105</v>
-      </c>
-      <c r="D17" t="s">
-        <v>123</v>
-      </c>
-      <c r="E17" t="s">
+      <c r="X20" s="5" t="s">
         <v>124</v>
       </c>
-      <c r="P17" t="s">
+      <c r="Y20">
+        <v>2025</v>
+      </c>
+      <c r="Z20" t="s">
         <v>125</v>
       </c>
-      <c r="Q17" t="s">
-        <v>21</v>
-      </c>
-      <c r="T17" t="s">
-        <v>21</v>
-      </c>
-      <c r="U17">
-        <v>79912</v>
-      </c>
-      <c r="V17">
-        <v>9898989889</v>
-      </c>
-      <c r="AX17" t="s">
-        <v>109</v>
-      </c>
-      <c r="AY17" t="s">
-        <v>111</v>
-      </c>
-      <c r="AZ17" s="1" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="18" spans="1:52" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>115</v>
-      </c>
-      <c r="AW18" t="s">
-        <v>112</v>
-      </c>
-      <c r="AX18" t="s">
-        <v>113</v>
-      </c>
-      <c r="AY18" s="1" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="19" spans="1:52" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>116</v>
-      </c>
-      <c r="AZ19" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="20" spans="1:52" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>119</v>
-      </c>
-      <c r="C20" s="1"/>
-      <c r="W20" t="s">
-        <v>120</v>
-      </c>
-      <c r="X20" s="10" t="s">
-        <v>121</v>
-      </c>
-      <c r="Y20" s="3">
-        <v>2025</v>
-      </c>
-      <c r="Z20" t="s">
-        <v>122</v>
-      </c>
-      <c r="AB20" s="4">
-        <v>1234</v>
-      </c>
-    </row>
-    <row r="21" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="AB20">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="21" spans="1:74" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>126</v>
       </c>
-      <c r="F21" s="1"/>
-      <c r="G21" s="1"/>
-      <c r="H21" s="1"/>
-      <c r="W21" t="s">
+      <c r="P21" t="s">
         <v>127</v>
       </c>
-      <c r="X21" s="5" t="s">
+      <c r="Q21" t="s">
         <v>128</v>
       </c>
-      <c r="Y21">
-        <v>2025</v>
-      </c>
-      <c r="Z21" t="s">
+      <c r="T21" t="s">
         <v>129</v>
       </c>
-      <c r="AB21">
-        <v>342</v>
-      </c>
-    </row>
-    <row r="22" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="U21" s="6" t="s">
+        <v>130</v>
+      </c>
+      <c r="V21" s="4">
+        <v>9898989899</v>
+      </c>
+    </row>
+    <row r="22" spans="1:74" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>130</v>
+        <v>131</v>
+      </c>
+      <c r="D22" t="s">
+        <v>7</v>
+      </c>
+      <c r="E22" t="s">
+        <v>8</v>
+      </c>
+      <c r="F22" s="1" t="s">
+        <v>179</v>
       </c>
       <c r="P22" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="Q22" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="T22" t="s">
-        <v>133</v>
-      </c>
-      <c r="U22" s="6" t="s">
         <v>134</v>
       </c>
-      <c r="V22" s="4">
+      <c r="U22">
+        <v>88063</v>
+      </c>
+      <c r="V22">
         <v>9898989899</v>
       </c>
     </row>
-    <row r="23" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:74" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>135</v>
       </c>
@@ -1624,7 +1898,7 @@
         <v>8</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>2</v>
+        <v>180</v>
       </c>
       <c r="P23" t="s">
         <v>136</v>
@@ -1633,64 +1907,322 @@
         <v>137</v>
       </c>
       <c r="T23" t="s">
+        <v>134</v>
+      </c>
+      <c r="U23" s="11" t="s">
         <v>138</v>
       </c>
-      <c r="U23">
-        <v>88063</v>
-      </c>
-      <c r="V23">
-        <v>9898989899</v>
-      </c>
-    </row>
-    <row r="24" spans="1:52" x14ac:dyDescent="0.25">
+    </row>
+    <row r="24" spans="1:74" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>139</v>
       </c>
-      <c r="D24" t="s">
+      <c r="B24" t="s">
+        <v>140</v>
+      </c>
+      <c r="C24" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="25" spans="1:74" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>142</v>
+      </c>
+      <c r="D25" t="s">
         <v>7</v>
       </c>
-      <c r="E24" t="s">
+      <c r="E25" t="s">
         <v>8</v>
       </c>
-      <c r="F24" s="1" t="s">
+      <c r="F25" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="P24" t="s">
+      <c r="L25" t="s">
+        <v>143</v>
+      </c>
+      <c r="M25" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="P25" t="s">
+        <v>57</v>
+      </c>
+      <c r="Q25" t="s">
+        <v>21</v>
+      </c>
+      <c r="R25" t="s">
+        <v>144</v>
+      </c>
+      <c r="S25" t="s">
+        <v>21</v>
+      </c>
+      <c r="U25">
+        <v>12345</v>
+      </c>
+      <c r="V25">
+        <v>9898989899</v>
+      </c>
+      <c r="BA25" t="s">
+        <v>145</v>
+      </c>
+      <c r="BB25" t="s">
+        <v>146</v>
+      </c>
+      <c r="BC25" t="s">
+        <v>147</v>
+      </c>
+      <c r="BD25" t="s">
+        <v>69</v>
+      </c>
+      <c r="BE25" t="s">
+        <v>69</v>
+      </c>
+      <c r="BF25" t="s">
+        <v>148</v>
+      </c>
+      <c r="BG25" t="s">
+        <v>148</v>
+      </c>
+      <c r="BH25">
+        <v>9</v>
+      </c>
+      <c r="BI25">
+        <v>10</v>
+      </c>
+      <c r="BJ25" t="s">
+        <v>149</v>
+      </c>
+      <c r="BK25" s="12">
+        <v>40000</v>
+      </c>
+      <c r="BL25">
+        <v>12</v>
+      </c>
+      <c r="BM25" s="12">
+        <v>1000000</v>
+      </c>
+      <c r="BN25" t="s">
+        <v>57</v>
+      </c>
+      <c r="BO25" t="s">
+        <v>150</v>
+      </c>
+      <c r="BP25">
+        <v>57501</v>
+      </c>
+      <c r="BQ25" t="s">
+        <v>151</v>
+      </c>
+      <c r="BR25" t="s">
+        <v>152</v>
+      </c>
+      <c r="BS25" t="s">
+        <v>153</v>
+      </c>
+      <c r="BT25" t="s">
+        <v>147</v>
+      </c>
+      <c r="BU25" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="26" spans="1:74" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>176</v>
+      </c>
+      <c r="B26" t="s">
         <v>140</v>
       </c>
-      <c r="Q24" t="s">
-        <v>141</v>
-      </c>
-      <c r="T24" t="s">
-        <v>138</v>
-      </c>
-      <c r="U24" s="11" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="25" spans="1:52" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
-        <v>143</v>
-      </c>
-      <c r="B25" t="s">
-        <v>144</v>
-      </c>
-      <c r="C25" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="26" spans="1:52" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
-        <v>147</v>
-      </c>
-      <c r="B26" t="s">
-        <v>148</v>
-      </c>
       <c r="C26" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="F26" t="s">
-        <v>148</v>
+        <v>100</v>
+      </c>
+      <c r="E26" s="7"/>
+      <c r="F26" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="G26" s="1"/>
+      <c r="H26" s="1"/>
+    </row>
+    <row r="27" spans="1:74" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>181</v>
+      </c>
+      <c r="D27" t="s">
+        <v>7</v>
+      </c>
+      <c r="E27" t="s">
+        <v>8</v>
+      </c>
+      <c r="F27" t="s">
+        <v>2</v>
+      </c>
+      <c r="P27" t="s">
+        <v>127</v>
+      </c>
+      <c r="Q27" t="s">
+        <v>182</v>
+      </c>
+      <c r="T27" t="s">
+        <v>129</v>
+      </c>
+      <c r="U27">
+        <v>28779</v>
+      </c>
+      <c r="V27">
+        <v>9898989899</v>
+      </c>
+    </row>
+    <row r="28" spans="1:74" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>183</v>
+      </c>
+      <c r="D28" t="s">
+        <v>7</v>
+      </c>
+      <c r="E28" t="s">
+        <v>8</v>
+      </c>
+      <c r="F28" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="P28" t="s">
+        <v>57</v>
+      </c>
+      <c r="Q28" t="s">
+        <v>211</v>
+      </c>
+      <c r="T28" t="s">
+        <v>56</v>
+      </c>
+      <c r="U28">
+        <v>12345</v>
+      </c>
+      <c r="V28">
+        <v>9898989899</v>
+      </c>
+    </row>
+    <row r="29" spans="1:74" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>184</v>
+      </c>
+      <c r="D29" t="s">
+        <v>7</v>
+      </c>
+      <c r="E29" t="s">
+        <v>8</v>
+      </c>
+      <c r="F29" t="s">
+        <v>2</v>
+      </c>
+      <c r="P29" t="s">
+        <v>190</v>
+      </c>
+      <c r="Q29" t="s">
+        <v>191</v>
+      </c>
+      <c r="T29" t="s">
+        <v>194</v>
+      </c>
+      <c r="U29">
+        <v>19702</v>
+      </c>
+      <c r="V29">
+        <v>9898989899</v>
+      </c>
+    </row>
+    <row r="30" spans="1:74" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>185</v>
+      </c>
+      <c r="D30" t="s">
+        <v>189</v>
+      </c>
+      <c r="E30" t="s">
+        <v>8</v>
+      </c>
+      <c r="F30" t="s">
+        <v>2</v>
+      </c>
+      <c r="P30" t="s">
+        <v>192</v>
+      </c>
+      <c r="Q30" t="s">
+        <v>193</v>
+      </c>
+      <c r="T30" t="s">
+        <v>195</v>
+      </c>
+      <c r="U30">
+        <v>99507</v>
+      </c>
+      <c r="V30">
+        <v>8989898989</v>
+      </c>
+    </row>
+    <row r="31" spans="1:74" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>186</v>
+      </c>
+      <c r="BV31" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="32" spans="1:74" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>187</v>
+      </c>
+      <c r="BV32" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="33" spans="1:75" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>188</v>
+      </c>
+      <c r="BW33" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="34" spans="1:75" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>200</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="F34" s="1" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="36" spans="1:75" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>202</v>
+      </c>
+      <c r="D36" t="s">
+        <v>7</v>
+      </c>
+      <c r="E36" t="s">
+        <v>8</v>
+      </c>
+      <c r="F36" t="s">
+        <v>2</v>
+      </c>
+      <c r="P36" t="s">
+        <v>204</v>
+      </c>
+      <c r="Q36" t="s">
+        <v>205</v>
+      </c>
+      <c r="S36" t="s">
+        <v>195</v>
+      </c>
+      <c r="T36" t="s">
+        <v>56</v>
+      </c>
+      <c r="U36">
+        <v>6492</v>
+      </c>
+      <c r="V36">
+        <v>989898989</v>
       </c>
     </row>
   </sheetData>
@@ -1701,22 +2233,23 @@
     <hyperlink ref="F8" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
     <hyperlink ref="I8" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
     <hyperlink ref="F9" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
-    <hyperlink ref="F10" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
-    <hyperlink ref="F3" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
+    <hyperlink ref="F3" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
+    <hyperlink ref="F12" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
     <hyperlink ref="F13" r:id="rId9" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
-    <hyperlink ref="F14" r:id="rId10" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
-    <hyperlink ref="G14" r:id="rId11" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
-    <hyperlink ref="AY18" r:id="rId12" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
-    <hyperlink ref="AZ17" r:id="rId13" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
-    <hyperlink ref="F4" r:id="rId14" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
-    <hyperlink ref="F23" r:id="rId15" xr:uid="{00000000-0004-0000-0000-00000E000000}"/>
-    <hyperlink ref="F24" r:id="rId16" xr:uid="{00000000-0004-0000-0000-00000F000000}"/>
-    <hyperlink ref="F2" r:id="rId17" xr:uid="{00000000-0004-0000-0000-000010000000}"/>
-    <hyperlink ref="C2" r:id="rId18" display="Mahendra@123.com" xr:uid="{00000000-0004-0000-0000-000011000000}"/>
-    <hyperlink ref="B2" r:id="rId19" xr:uid="{00000000-0004-0000-0000-000012000000}"/>
-    <hyperlink ref="C26" r:id="rId20" xr:uid="{C4852D1E-04CA-4606-A661-182A211D0DA4}"/>
+    <hyperlink ref="G13" r:id="rId10" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
+    <hyperlink ref="AZ16" r:id="rId11" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
+    <hyperlink ref="F4" r:id="rId12" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
+    <hyperlink ref="F22" r:id="rId13" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
+    <hyperlink ref="F23" r:id="rId14" xr:uid="{00000000-0004-0000-0000-00000E000000}"/>
+    <hyperlink ref="F2" r:id="rId15" xr:uid="{00000000-0004-0000-0000-00000F000000}"/>
+    <hyperlink ref="C2" r:id="rId16" display="Mahendra@123.com" xr:uid="{00000000-0004-0000-0000-000010000000}"/>
+    <hyperlink ref="B2" r:id="rId17" xr:uid="{00000000-0004-0000-0000-000011000000}"/>
+    <hyperlink ref="F25" r:id="rId18" xr:uid="{00000000-0004-0000-0000-000012000000}"/>
+    <hyperlink ref="F26" r:id="rId19" xr:uid="{00000000-0004-0000-0000-000013000000}"/>
+    <hyperlink ref="F28" r:id="rId20" xr:uid="{C22AADFC-1A71-4E22-8E4A-BA7A0A7E5477}"/>
+    <hyperlink ref="F34" r:id="rId21" xr:uid="{49D08808-F7E2-48E4-AACC-4E7FE43E8B69}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId21"/>
+  <pageSetup orientation="portrait" r:id="rId22"/>
 </worksheet>
 </file>
--- a/src/test/resources/TestData/Hydroflask/HydroTestData.xlsx
+++ b/src/test/resources/TestData/Hydroflask/HydroTestData.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24430"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27172E83-564A-4789-9509-BFB4107E7671}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AFE25090-E7EB-4DF6-ABEA-5A3355097876}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="9360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DataSet" sheetId="1" r:id="rId1"/>
@@ -1029,7 +1029,7 @@
   <dimension ref="A1:BW36"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="M21" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="T28" sqref="T28"/>
+      <selection activeCell="P25" sqref="P25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/src/test/resources/TestData/Hydroflask/HydroTestData.xlsx
+++ b/src/test/resources/TestData/Hydroflask/HydroTestData.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24430"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24701"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AFE25090-E7EB-4DF6-ABEA-5A3355097876}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7200B390-B99A-443C-BFC2-D07334B1AD99}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="297" uniqueCount="212">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="298" uniqueCount="212">
   <si>
     <t>UserName</t>
   </si>
@@ -1028,8 +1028,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:BW36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="M21" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="P25" sqref="P25"/>
+    <sheetView tabSelected="1" topLeftCell="M16" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="V36" sqref="V36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2218,8 +2218,8 @@
       <c r="T36" t="s">
         <v>56</v>
       </c>
-      <c r="U36">
-        <v>6492</v>
+      <c r="U36" s="11" t="s">
+        <v>59</v>
       </c>
       <c r="V36">
         <v>989898989</v>

--- a/src/test/resources/TestData/Hydroflask/HydroTestData.xlsx
+++ b/src/test/resources/TestData/Hydroflask/HydroTestData.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24701"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7200B390-B99A-443C-BFC2-D07334B1AD99}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B43B5F8F-30C7-4270-9C11-2182782C8889}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="9810" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DataSet" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="298" uniqueCount="212">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="307" uniqueCount="213">
   <si>
     <t>UserName</t>
   </si>
@@ -663,6 +663,9 @@
   </si>
   <si>
     <t>wallingford</t>
+  </si>
+  <si>
+    <t>InvalidAddress1</t>
   </si>
 </sst>
 </file>
@@ -1028,8 +1031,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:BW36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="M16" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="V36" sqref="V36"/>
+    <sheetView tabSelected="1" topLeftCell="A28" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="A33" sqref="A33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2193,6 +2196,38 @@
         <v>201</v>
       </c>
     </row>
+    <row r="35" spans="1:75" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>212</v>
+      </c>
+      <c r="D35" t="s">
+        <v>7</v>
+      </c>
+      <c r="E35" t="s">
+        <v>8</v>
+      </c>
+      <c r="F35" t="s">
+        <v>2</v>
+      </c>
+      <c r="P35" t="s">
+        <v>204</v>
+      </c>
+      <c r="Q35" t="s">
+        <v>205</v>
+      </c>
+      <c r="S35" t="s">
+        <v>195</v>
+      </c>
+      <c r="T35" t="s">
+        <v>56</v>
+      </c>
+      <c r="U35" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="V35">
+        <v>989898989</v>
+      </c>
+    </row>
     <row r="36" spans="1:75" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>202</v>

--- a/src/test/resources/TestData/Hydroflask/HydroTestData.xlsx
+++ b/src/test/resources/TestData/Hydroflask/HydroTestData.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24701"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24729"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B43B5F8F-30C7-4270-9C11-2182782C8889}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE4031C8-BF0B-460B-ABFB-18BD2E79C9FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="9810" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DataSet" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="307" uniqueCount="213">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="298" uniqueCount="215">
   <si>
     <t>UserName</t>
   </si>
@@ -317,9 +317,6 @@
     <t>invlidPaymentDetails</t>
   </si>
   <si>
-    <t>mahe</t>
-  </si>
-  <si>
     <t>MasterCard</t>
   </si>
   <si>
@@ -452,9 +449,6 @@
     <t>manojk</t>
   </si>
   <si>
-    <t>b{?e\Gm=c8qDH8p@</t>
-  </si>
-  <si>
     <t>account_Enquiry</t>
   </si>
   <si>
@@ -491,9 +485,6 @@
     <t>Good products</t>
   </si>
   <si>
-    <t>Mahendra</t>
-  </si>
-  <si>
     <t>Channel</t>
   </si>
   <si>
@@ -560,12 +551,6 @@
     <t>PaypalDetails</t>
   </si>
   <si>
-    <t>mahendr.se@gmail.com</t>
-  </si>
-  <si>
-    <t>mahendr.selm@gmail.com</t>
-  </si>
-  <si>
     <t>mahendr.senium@gmail.com</t>
   </si>
   <si>
@@ -665,7 +650,28 @@
     <t>wallingford</t>
   </si>
   <si>
-    <t>InvalidAddress1</t>
+    <t>qalotuswave@gmail.com</t>
+  </si>
+  <si>
+    <t>HydroflaskQA@123</t>
+  </si>
+  <si>
+    <t>QA</t>
+  </si>
+  <si>
+    <t>Testing</t>
+  </si>
+  <si>
+    <t>Qatesting</t>
+  </si>
+  <si>
+    <t>s</t>
+  </si>
+  <si>
+    <t>8EHqdUqCRHXGrAE</t>
+  </si>
+  <si>
+    <t>ajith</t>
   </si>
 </sst>
 </file>
@@ -675,7 +681,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0;[Red]0"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -697,6 +703,12 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF242424"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="3">
@@ -726,7 +738,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
@@ -748,6 +760,7 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1029,58 +1042,58 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:BW36"/>
+  <dimension ref="A1:BW35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="A33" sqref="A33"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="25.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="29.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="19.7109375" customWidth="1"/>
-    <col min="4" max="4" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="8" width="32.28515625" customWidth="1"/>
-    <col min="9" max="9" width="29.42578125" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="28.28515625" customWidth="1"/>
-    <col min="12" max="12" width="10.5703125" customWidth="1"/>
-    <col min="13" max="13" width="34.140625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="17.140625" customWidth="1"/>
-    <col min="15" max="15" width="18.28515625" customWidth="1"/>
-    <col min="16" max="16" width="16.140625" customWidth="1"/>
-    <col min="17" max="17" width="11.42578125" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="17.28515625" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="17.28515625" customWidth="1"/>
-    <col min="20" max="20" width="17.28515625" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="13.42578125" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="11.140625" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="27.28515625" customWidth="1"/>
+    <col min="1" max="1" width="25.81640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="29.453125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.7265625" customWidth="1"/>
+    <col min="4" max="4" width="10.1796875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.7265625" bestFit="1" customWidth="1"/>
+    <col min="6" max="8" width="32.26953125" customWidth="1"/>
+    <col min="9" max="9" width="29.453125" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="28.26953125" customWidth="1"/>
+    <col min="12" max="12" width="10.54296875" customWidth="1"/>
+    <col min="13" max="13" width="34.1796875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="17.1796875" customWidth="1"/>
+    <col min="15" max="15" width="18.26953125" customWidth="1"/>
+    <col min="16" max="16" width="16.1796875" customWidth="1"/>
+    <col min="17" max="17" width="11.453125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="17.26953125" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="17.26953125" customWidth="1"/>
+    <col min="20" max="20" width="17.26953125" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="13.453125" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="11.1796875" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="27.26953125" customWidth="1"/>
     <col min="28" max="28" width="4" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="16.140625" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="13.5703125" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="29.28515625" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="14.7109375" bestFit="1" customWidth="1"/>
-    <col min="36" max="36" width="14.7109375" customWidth="1"/>
-    <col min="37" max="37" width="15.7109375" bestFit="1" customWidth="1"/>
-    <col min="38" max="38" width="21.140625" customWidth="1"/>
-    <col min="39" max="39" width="21.42578125" bestFit="1" customWidth="1"/>
-    <col min="41" max="41" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="44" max="44" width="13.5703125" bestFit="1" customWidth="1"/>
-    <col min="45" max="45" width="20.42578125" bestFit="1" customWidth="1"/>
-    <col min="46" max="46" width="23.140625" bestFit="1" customWidth="1"/>
-    <col min="47" max="47" width="35.42578125" bestFit="1" customWidth="1"/>
-    <col min="48" max="48" width="146.85546875" bestFit="1" customWidth="1"/>
-    <col min="49" max="49" width="16.7109375" bestFit="1" customWidth="1"/>
-    <col min="50" max="50" width="14.85546875" bestFit="1" customWidth="1"/>
-    <col min="51" max="51" width="28.28515625" bestFit="1" customWidth="1"/>
-    <col min="52" max="52" width="43.5703125" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="16.1796875" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="11.54296875" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="13.54296875" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="10.7265625" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="29.26953125" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="14.7265625" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="14.7265625" customWidth="1"/>
+    <col min="37" max="37" width="15.7265625" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="21.1796875" customWidth="1"/>
+    <col min="39" max="39" width="21.453125" bestFit="1" customWidth="1"/>
+    <col min="41" max="41" width="10.54296875" bestFit="1" customWidth="1"/>
+    <col min="44" max="44" width="13.54296875" bestFit="1" customWidth="1"/>
+    <col min="45" max="45" width="20.453125" bestFit="1" customWidth="1"/>
+    <col min="46" max="46" width="23.1796875" bestFit="1" customWidth="1"/>
+    <col min="47" max="47" width="35.453125" bestFit="1" customWidth="1"/>
+    <col min="48" max="48" width="146.81640625" bestFit="1" customWidth="1"/>
+    <col min="49" max="49" width="16.7265625" bestFit="1" customWidth="1"/>
+    <col min="50" max="50" width="14.81640625" bestFit="1" customWidth="1"/>
+    <col min="51" max="51" width="28.26953125" bestFit="1" customWidth="1"/>
+    <col min="52" max="52" width="43.54296875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:75" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
         <v>3</v>
       </c>
@@ -1221,108 +1234,108 @@
         <v>81</v>
       </c>
       <c r="AV1" s="2" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="AW1" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="AX1" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="AX1" s="2" t="s">
+      <c r="AY1" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="AY1" s="2" t="s">
-        <v>108</v>
-      </c>
       <c r="AZ1" s="2" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="BA1" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="BB1" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="BC1" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="BD1" s="2" t="s">
         <v>155</v>
       </c>
-      <c r="BB1" s="2" t="s">
+      <c r="BE1" s="2" t="s">
         <v>156</v>
       </c>
-      <c r="BC1" s="2" t="s">
+      <c r="BF1" s="2" t="s">
         <v>157</v>
       </c>
-      <c r="BD1" s="2" t="s">
+      <c r="BG1" s="2" t="s">
         <v>158</v>
       </c>
-      <c r="BE1" s="2" t="s">
+      <c r="BH1" s="2" t="s">
         <v>159</v>
       </c>
-      <c r="BF1" s="2" t="s">
+      <c r="BI1" s="2" t="s">
         <v>160</v>
       </c>
-      <c r="BG1" s="2" t="s">
+      <c r="BJ1" s="2" t="s">
         <v>161</v>
       </c>
-      <c r="BH1" s="2" t="s">
+      <c r="BK1" s="2" t="s">
         <v>162</v>
       </c>
-      <c r="BI1" s="2" t="s">
+      <c r="BL1" s="2" t="s">
         <v>163</v>
       </c>
-      <c r="BJ1" s="2" t="s">
+      <c r="BM1" s="2" t="s">
         <v>164</v>
       </c>
-      <c r="BK1" s="2" t="s">
+      <c r="BN1" s="2" t="s">
         <v>165</v>
       </c>
-      <c r="BL1" s="2" t="s">
+      <c r="BO1" s="2" t="s">
         <v>166</v>
       </c>
-      <c r="BM1" s="2" t="s">
+      <c r="BP1" s="2" t="s">
         <v>167</v>
       </c>
-      <c r="BN1" s="2" t="s">
+      <c r="BQ1" s="2" t="s">
         <v>168</v>
       </c>
-      <c r="BO1" s="2" t="s">
+      <c r="BR1" s="2" t="s">
         <v>169</v>
       </c>
-      <c r="BP1" s="2" t="s">
+      <c r="BS1" s="2" t="s">
         <v>170</v>
       </c>
-      <c r="BQ1" s="2" t="s">
+      <c r="BT1" s="2" t="s">
         <v>171</v>
       </c>
-      <c r="BR1" s="2" t="s">
+      <c r="BU1" s="2" t="s">
         <v>172</v>
       </c>
-      <c r="BS1" s="2" t="s">
-        <v>173</v>
-      </c>
-      <c r="BT1" s="2" t="s">
-        <v>174</v>
-      </c>
-      <c r="BU1" s="2" t="s">
-        <v>175</v>
-      </c>
       <c r="BV1" t="s">
-        <v>198</v>
+        <v>193</v>
       </c>
       <c r="BW1" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="2" spans="1:75" x14ac:dyDescent="0.25">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="2" spans="1:75" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>4</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>2</v>
+        <v>207</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>9</v>
+        <v>208</v>
       </c>
       <c r="D2" t="s">
-        <v>96</v>
+        <v>209</v>
       </c>
       <c r="E2" t="s">
-        <v>8</v>
+        <v>210</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>2</v>
+        <v>207</v>
       </c>
       <c r="G2" s="1"/>
       <c r="H2" s="1"/>
@@ -1334,19 +1347,19 @@
       <c r="N2" s="1"/>
       <c r="O2" s="1"/>
     </row>
-    <row r="3" spans="1:75" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:75" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>86</v>
       </c>
       <c r="C3" s="1"/>
       <c r="D3" t="s">
-        <v>7</v>
+        <v>209</v>
       </c>
       <c r="E3" t="s">
-        <v>8</v>
+        <v>210</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>178</v>
+        <v>207</v>
       </c>
       <c r="G3" s="1"/>
       <c r="H3" s="1"/>
@@ -1376,19 +1389,19 @@
         <v>9898989899</v>
       </c>
     </row>
-    <row r="4" spans="1:75" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:75" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>10</v>
       </c>
       <c r="C4" s="1"/>
       <c r="D4" t="s">
-        <v>7</v>
+        <v>209</v>
       </c>
       <c r="E4" t="s">
-        <v>8</v>
+        <v>210</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>177</v>
+        <v>207</v>
       </c>
       <c r="G4" s="1"/>
       <c r="H4" s="1"/>
@@ -1418,16 +1431,16 @@
         <v>9898989899</v>
       </c>
     </row>
-    <row r="5" spans="1:75" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:75" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C5" s="1"/>
       <c r="W5" t="s">
+        <v>96</v>
+      </c>
+      <c r="X5" s="10" t="s">
         <v>97</v>
-      </c>
-      <c r="X5" s="10" t="s">
-        <v>98</v>
       </c>
       <c r="Y5" s="3">
         <v>2025</v>
@@ -1439,7 +1452,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="6" spans="1:75" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:75" ht="24.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>24</v>
       </c>
@@ -1460,21 +1473,21 @@
         <v>123</v>
       </c>
     </row>
-    <row r="7" spans="1:75" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:75" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>27</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>9</v>
+        <v>208</v>
       </c>
       <c r="D7" t="s">
-        <v>7</v>
+        <v>209</v>
       </c>
       <c r="E7" t="s">
-        <v>8</v>
+        <v>210</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>2</v>
+        <v>207</v>
       </c>
       <c r="G7" s="1"/>
       <c r="H7" s="1"/>
@@ -1513,26 +1526,26 @@
         <v>9898989899</v>
       </c>
     </row>
-    <row r="8" spans="1:75" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:75" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>38</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>9</v>
+        <v>208</v>
       </c>
       <c r="D8" t="s">
-        <v>7</v>
+        <v>209</v>
       </c>
       <c r="E8" t="s">
-        <v>8</v>
+        <v>210</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>2</v>
+        <v>207</v>
       </c>
       <c r="G8" s="1"/>
       <c r="H8" s="1"/>
       <c r="I8" s="1" t="s">
-        <v>2</v>
+        <v>207</v>
       </c>
       <c r="J8" s="1" t="s">
         <v>43</v>
@@ -1565,18 +1578,18 @@
         <v>9898989899</v>
       </c>
     </row>
-    <row r="9" spans="1:75" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:75" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>44</v>
       </c>
       <c r="D9" t="s">
-        <v>7</v>
+        <v>209</v>
       </c>
       <c r="E9" t="s">
-        <v>8</v>
+        <v>210</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>2</v>
+        <v>207</v>
       </c>
       <c r="G9" s="1"/>
       <c r="H9" s="1"/>
@@ -1623,7 +1636,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="10" spans="1:75" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:75" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>62</v>
       </c>
@@ -1631,7 +1644,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="11" spans="1:75" s="8" customFormat="1" ht="150" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:75" s="8" customFormat="1" ht="130.5" x14ac:dyDescent="0.35">
       <c r="A11" s="8" t="s">
         <v>73</v>
       </c>
@@ -1675,7 +1688,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="12" spans="1:75" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:75" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>87</v>
       </c>
@@ -1685,7 +1698,7 @@
       <c r="G12" s="1"/>
       <c r="H12" s="1"/>
     </row>
-    <row r="13" spans="1:75" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:75" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>88</v>
       </c>
@@ -1708,7 +1721,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="14" spans="1:75" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:75" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>95</v>
       </c>
@@ -1729,26 +1742,26 @@
         <v>123</v>
       </c>
     </row>
-    <row r="15" spans="1:75" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:75" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="AV15" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="16" spans="1:75" x14ac:dyDescent="0.35">
+      <c r="A16" t="s">
         <v>104</v>
       </c>
-    </row>
-    <row r="16" spans="1:75" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>105</v>
-      </c>
       <c r="D16" t="s">
+        <v>118</v>
+      </c>
+      <c r="E16" t="s">
         <v>119</v>
       </c>
-      <c r="E16" t="s">
+      <c r="P16" t="s">
         <v>120</v>
-      </c>
-      <c r="P16" t="s">
-        <v>121</v>
       </c>
       <c r="Q16" t="s">
         <v>21</v>
@@ -1763,107 +1776,107 @@
         <v>9898989889</v>
       </c>
       <c r="AW16" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
       <c r="AX16" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="AY16" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="AZ16" s="1" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="17" spans="1:74" x14ac:dyDescent="0.25">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="17" spans="1:74" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
+        <v>110</v>
+      </c>
+      <c r="AW17" t="s">
+        <v>204</v>
+      </c>
+      <c r="AX17" t="s">
+        <v>205</v>
+      </c>
+      <c r="AY17" s="1" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="18" spans="1:74" x14ac:dyDescent="0.35">
+      <c r="A18" t="s">
         <v>111</v>
       </c>
-      <c r="AW17" t="s">
-        <v>209</v>
-      </c>
-      <c r="AX17" t="s">
-        <v>210</v>
-      </c>
-      <c r="AY17" s="1" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="18" spans="1:74" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>112</v>
-      </c>
       <c r="AZ18" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="19" spans="1:74" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A19" t="s">
         <v>114</v>
-      </c>
-    </row>
-    <row r="19" spans="1:74" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>115</v>
       </c>
       <c r="C19" s="1"/>
       <c r="W19" t="s">
+        <v>115</v>
+      </c>
+      <c r="X19" s="10" t="s">
         <v>116</v>
-      </c>
-      <c r="X19" s="10" t="s">
-        <v>117</v>
       </c>
       <c r="Y19" s="3">
         <v>2025</v>
       </c>
       <c r="Z19" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="AB19" s="4">
         <v>1234</v>
       </c>
     </row>
-    <row r="20" spans="1:74" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:74" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="F20" s="1"/>
       <c r="G20" s="1"/>
       <c r="H20" s="1"/>
       <c r="W20" t="s">
+        <v>122</v>
+      </c>
+      <c r="X20" s="5" t="s">
         <v>123</v>
-      </c>
-      <c r="X20" s="5" t="s">
-        <v>124</v>
       </c>
       <c r="Y20">
         <v>2025</v>
       </c>
       <c r="Z20" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="AB20">
         <v>342</v>
       </c>
     </row>
-    <row r="21" spans="1:74" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:74" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
+        <v>125</v>
+      </c>
+      <c r="P21" t="s">
         <v>126</v>
       </c>
-      <c r="P21" t="s">
+      <c r="Q21" t="s">
         <v>127</v>
       </c>
-      <c r="Q21" t="s">
+      <c r="T21" t="s">
         <v>128</v>
       </c>
-      <c r="T21" t="s">
+      <c r="U21" s="6" t="s">
         <v>129</v>
-      </c>
-      <c r="U21" s="6" t="s">
-        <v>130</v>
       </c>
       <c r="V21" s="4">
         <v>9898989899</v>
       </c>
     </row>
-    <row r="22" spans="1:74" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:74" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D22" t="s">
         <v>7</v>
@@ -1872,16 +1885,16 @@
         <v>8</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>179</v>
+        <v>174</v>
       </c>
       <c r="P22" t="s">
+        <v>131</v>
+      </c>
+      <c r="Q22" t="s">
         <v>132</v>
       </c>
-      <c r="Q22" t="s">
+      <c r="T22" t="s">
         <v>133</v>
-      </c>
-      <c r="T22" t="s">
-        <v>134</v>
       </c>
       <c r="U22">
         <v>88063</v>
@@ -1890,9 +1903,9 @@
         <v>9898989899</v>
       </c>
     </row>
-    <row r="23" spans="1:74" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:74" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D23" t="s">
         <v>7</v>
@@ -1901,47 +1914,47 @@
         <v>8</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="P23" t="s">
+        <v>135</v>
+      </c>
+      <c r="Q23" t="s">
         <v>136</v>
       </c>
-      <c r="Q23" t="s">
+      <c r="T23" t="s">
+        <v>133</v>
+      </c>
+      <c r="U23" s="11" t="s">
         <v>137</v>
       </c>
-      <c r="T23" t="s">
-        <v>134</v>
-      </c>
-      <c r="U23" s="11" t="s">
+    </row>
+    <row r="24" spans="1:74" ht="16.5" x14ac:dyDescent="0.45">
+      <c r="A24" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="24" spans="1:74" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
-        <v>139</v>
-      </c>
-      <c r="B24" t="s">
+      <c r="B24" s="13" t="s">
+        <v>214</v>
+      </c>
+      <c r="C24" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="25" spans="1:74" x14ac:dyDescent="0.35">
+      <c r="A25" t="s">
         <v>140</v>
       </c>
-      <c r="C24" t="s">
+      <c r="D25" t="s">
+        <v>209</v>
+      </c>
+      <c r="E25" t="s">
+        <v>210</v>
+      </c>
+      <c r="F25" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="L25" t="s">
         <v>141</v>
-      </c>
-    </row>
-    <row r="25" spans="1:74" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
-        <v>142</v>
-      </c>
-      <c r="D25" t="s">
-        <v>7</v>
-      </c>
-      <c r="E25" t="s">
-        <v>8</v>
-      </c>
-      <c r="F25" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="L25" t="s">
-        <v>143</v>
       </c>
       <c r="M25" s="1" t="s">
         <v>31</v>
@@ -1953,7 +1966,7 @@
         <v>21</v>
       </c>
       <c r="R25" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="S25" t="s">
         <v>21</v>
@@ -1965,13 +1978,13 @@
         <v>9898989899</v>
       </c>
       <c r="BA25" t="s">
+        <v>143</v>
+      </c>
+      <c r="BB25" t="s">
+        <v>144</v>
+      </c>
+      <c r="BC25" t="s">
         <v>145</v>
-      </c>
-      <c r="BB25" t="s">
-        <v>146</v>
-      </c>
-      <c r="BC25" t="s">
-        <v>147</v>
       </c>
       <c r="BD25" t="s">
         <v>69</v>
@@ -1980,10 +1993,10 @@
         <v>69</v>
       </c>
       <c r="BF25" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="BG25" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="BH25">
         <v>9</v>
@@ -1992,7 +2005,7 @@
         <v>10</v>
       </c>
       <c r="BJ25" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="BK25" s="12">
         <v>40000</v>
@@ -2007,47 +2020,47 @@
         <v>57</v>
       </c>
       <c r="BO25" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="BP25">
         <v>57501</v>
       </c>
       <c r="BQ25" t="s">
+        <v>149</v>
+      </c>
+      <c r="BR25" t="s">
+        <v>150</v>
+      </c>
+      <c r="BS25" t="s">
         <v>151</v>
       </c>
-      <c r="BR25" t="s">
-        <v>152</v>
-      </c>
-      <c r="BS25" t="s">
-        <v>153</v>
-      </c>
       <c r="BT25" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="BU25" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="26" spans="1:74" x14ac:dyDescent="0.25">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="26" spans="1:74" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="B26" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E26" s="7"/>
       <c r="F26" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="G26" s="1"/>
       <c r="H26" s="1"/>
     </row>
-    <row r="27" spans="1:74" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:74" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="D27" t="s">
         <v>7</v>
@@ -2059,13 +2072,13 @@
         <v>2</v>
       </c>
       <c r="P27" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="Q27" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="T27" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="U27">
         <v>28779</v>
@@ -2074,9 +2087,9 @@
         <v>9898989899</v>
       </c>
     </row>
-    <row r="28" spans="1:74" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:74" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="D28" t="s">
         <v>7</v>
@@ -2085,13 +2098,13 @@
         <v>8</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="P28" t="s">
         <v>57</v>
       </c>
       <c r="Q28" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="T28" t="s">
         <v>56</v>
@@ -2103,9 +2116,9 @@
         <v>9898989899</v>
       </c>
     </row>
-    <row r="29" spans="1:74" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:74" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
-        <v>184</v>
+        <v>179</v>
       </c>
       <c r="D29" t="s">
         <v>7</v>
@@ -2117,13 +2130,13 @@
         <v>2</v>
       </c>
       <c r="P29" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="Q29" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
       <c r="T29" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="U29">
         <v>19702</v>
@@ -2132,12 +2145,12 @@
         <v>9898989899</v>
       </c>
     </row>
-    <row r="30" spans="1:74" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:74" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
-        <v>185</v>
+        <v>180</v>
       </c>
       <c r="D30" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="E30" t="s">
         <v>8</v>
@@ -2146,13 +2159,13 @@
         <v>2</v>
       </c>
       <c r="P30" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="Q30" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="T30" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="U30">
         <v>99507</v>
@@ -2161,44 +2174,47 @@
         <v>8989898989</v>
       </c>
     </row>
-    <row r="31" spans="1:74" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:74" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="BV31" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="32" spans="1:74" x14ac:dyDescent="0.35">
+      <c r="A32" t="s">
+        <v>182</v>
+      </c>
+      <c r="BV32" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="33" spans="1:75" x14ac:dyDescent="0.35">
+      <c r="A33" t="s">
+        <v>183</v>
+      </c>
+      <c r="BN33" t="s">
+        <v>212</v>
+      </c>
+      <c r="BW33" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="34" spans="1:75" x14ac:dyDescent="0.35">
+      <c r="A34" t="s">
+        <v>195</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="F34" s="1" t="s">
         <v>196</v>
       </c>
     </row>
-    <row r="32" spans="1:74" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
-        <v>187</v>
-      </c>
-      <c r="BV32" t="s">
+    <row r="35" spans="1:75" x14ac:dyDescent="0.35">
+      <c r="A35" t="s">
         <v>197</v>
-      </c>
-    </row>
-    <row r="33" spans="1:75" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
-        <v>188</v>
-      </c>
-      <c r="BW33" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="34" spans="1:75" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
-        <v>200</v>
-      </c>
-      <c r="C34" s="1" t="s">
-        <v>203</v>
-      </c>
-      <c r="F34" s="1" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="35" spans="1:75" x14ac:dyDescent="0.25">
-      <c r="A35" t="s">
-        <v>212</v>
       </c>
       <c r="D35" t="s">
         <v>7</v>
@@ -2210,81 +2226,46 @@
         <v>2</v>
       </c>
       <c r="P35" t="s">
-        <v>204</v>
+        <v>199</v>
       </c>
       <c r="Q35" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="S35" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="T35" t="s">
         <v>56</v>
       </c>
-      <c r="U35" s="11" t="s">
-        <v>59</v>
+      <c r="U35">
+        <v>6492</v>
       </c>
       <c r="V35">
         <v>989898989</v>
       </c>
     </row>
-    <row r="36" spans="1:75" x14ac:dyDescent="0.25">
-      <c r="A36" t="s">
-        <v>202</v>
-      </c>
-      <c r="D36" t="s">
-        <v>7</v>
-      </c>
-      <c r="E36" t="s">
-        <v>8</v>
-      </c>
-      <c r="F36" t="s">
-        <v>2</v>
-      </c>
-      <c r="P36" t="s">
-        <v>204</v>
-      </c>
-      <c r="Q36" t="s">
-        <v>205</v>
-      </c>
-      <c r="S36" t="s">
-        <v>195</v>
-      </c>
-      <c r="T36" t="s">
-        <v>56</v>
-      </c>
-      <c r="U36" s="11" t="s">
-        <v>59</v>
-      </c>
-      <c r="V36">
-        <v>989898989</v>
-      </c>
-    </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="F7" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
-    <hyperlink ref="C7" r:id="rId2" display="Mahendra@123.com" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
-    <hyperlink ref="C8" r:id="rId3" display="Mahendra@123.com" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
-    <hyperlink ref="F8" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
-    <hyperlink ref="I8" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
-    <hyperlink ref="F9" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
-    <hyperlink ref="F3" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
-    <hyperlink ref="F12" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
-    <hyperlink ref="F13" r:id="rId9" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
-    <hyperlink ref="G13" r:id="rId10" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
-    <hyperlink ref="AZ16" r:id="rId11" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
-    <hyperlink ref="F4" r:id="rId12" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
-    <hyperlink ref="F22" r:id="rId13" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
-    <hyperlink ref="F23" r:id="rId14" xr:uid="{00000000-0004-0000-0000-00000E000000}"/>
-    <hyperlink ref="F2" r:id="rId15" xr:uid="{00000000-0004-0000-0000-00000F000000}"/>
-    <hyperlink ref="C2" r:id="rId16" display="Mahendra@123.com" xr:uid="{00000000-0004-0000-0000-000010000000}"/>
-    <hyperlink ref="B2" r:id="rId17" xr:uid="{00000000-0004-0000-0000-000011000000}"/>
-    <hyperlink ref="F25" r:id="rId18" xr:uid="{00000000-0004-0000-0000-000012000000}"/>
-    <hyperlink ref="F26" r:id="rId19" xr:uid="{00000000-0004-0000-0000-000013000000}"/>
-    <hyperlink ref="F28" r:id="rId20" xr:uid="{C22AADFC-1A71-4E22-8E4A-BA7A0A7E5477}"/>
-    <hyperlink ref="F34" r:id="rId21" xr:uid="{49D08808-F7E2-48E4-AACC-4E7FE43E8B69}"/>
+    <hyperlink ref="F12" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
+    <hyperlink ref="F13" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
+    <hyperlink ref="G13" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
+    <hyperlink ref="AZ16" r:id="rId4" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
+    <hyperlink ref="F22" r:id="rId5" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
+    <hyperlink ref="F23" r:id="rId6" xr:uid="{00000000-0004-0000-0000-00000E000000}"/>
+    <hyperlink ref="F26" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000013000000}"/>
+    <hyperlink ref="F28" r:id="rId8" xr:uid="{C22AADFC-1A71-4E22-8E4A-BA7A0A7E5477}"/>
+    <hyperlink ref="F34" r:id="rId9" xr:uid="{49D08808-F7E2-48E4-AACC-4E7FE43E8B69}"/>
+    <hyperlink ref="F9" r:id="rId10" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
+    <hyperlink ref="F8" r:id="rId11" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
+    <hyperlink ref="F7" r:id="rId12" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="F2" r:id="rId13" xr:uid="{00000000-0004-0000-0000-00000F000000}"/>
+    <hyperlink ref="C2" r:id="rId14" xr:uid="{00000000-0004-0000-0000-000010000000}"/>
+    <hyperlink ref="B2" r:id="rId15" xr:uid="{00000000-0004-0000-0000-000011000000}"/>
+    <hyperlink ref="I8" r:id="rId16" xr:uid="{7D051DC0-8CE9-4786-8201-F77682EAAB8D}"/>
+    <hyperlink ref="F3" r:id="rId17" xr:uid="{46A60F5E-D407-419C-BDAF-4AF87FE556E7}"/>
+    <hyperlink ref="F4" r:id="rId18" xr:uid="{535F6AC4-8AB8-4E3B-81D1-CA9309628366}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId22"/>
+  <pageSetup orientation="portrait" r:id="rId19"/>
 </worksheet>
 </file>